--- a/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/2 PROCEDIMIENTOS  ANALITICOS/6 RATIOS FINANCIEROS.xlsx
+++ b/static/templates_base_financiera/2 ESTRATEGIA Y PLAN DE AUDITORIA/2 PROCEDIMIENTOS  ANALITICOS/6 RATIOS FINANCIEROS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\2 ESTRATEGIA Y PLAN DE AUDITORIA\2 PROCEDIMIENTOS  ANALITICOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D6DCF8-9533-4E57-8E27-3D90E8F77A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6822E911-3FF3-446D-80F6-F7EB339EBF50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,15 +48,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="290">
-  <si>
-    <t>Constructora Los HERMANOS SHENKER, S.A.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="289">
   <si>
     <t>Estado de Situación Financiera</t>
-  </si>
-  <si>
-    <t>Al 31 de diciembre de 2019 y 2018</t>
   </si>
   <si>
     <t>(Expresada en miles de dólares)</t>
@@ -1539,9 +1533,6 @@
     <t>En caso de que se liquiden los activos de la entidad, el valor de cada acción es de US$12.9</t>
   </si>
   <si>
-    <t>Al 31 de diciembre de 2024 y 2023</t>
-  </si>
-  <si>
     <t>Entidad XXXXXXX</t>
   </si>
   <si>
@@ -1573,6 +1564,12 @@
   </si>
   <si>
     <t>PASIVO</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -2279,7 +2276,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -2467,16 +2464,46 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2488,37 +2515,10 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3287,7 +3287,7 @@
   <dimension ref="C3:M107"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3307,46 +3307,51 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:12">
-      <c r="C3" s="133" t="s">
-        <v>279</v>
-      </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
+      <c r="C3" s="153" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
     </row>
     <row r="4" spans="3:12">
-      <c r="C4" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
+      <c r="C4" s="153" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
     </row>
     <row r="5" spans="3:12">
-      <c r="C5" s="133" t="s">
-        <v>278</v>
-      </c>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
+      <c r="C5" s="153" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
       <c r="K5" s="116" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="3:12">
       <c r="C6" s="134" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="134"/>
       <c r="E6" s="134"/>
       <c r="K6" s="127" t="s">
-        <v>3</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:12">
+      <c r="D7" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="9" spans="3:12">
       <c r="C9" s="114"/>
       <c r="D9" s="113" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E9" s="113" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J9" s="114"/>
       <c r="K9" s="114">
@@ -3358,7 +3363,7 @@
     </row>
     <row r="10" spans="3:12">
       <c r="C10" s="97" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" s="128"/>
       <c r="E10" s="128"/>
@@ -3368,12 +3373,12 @@
     </row>
     <row r="11" spans="3:12">
       <c r="C11" s="102" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="129"/>
       <c r="E11" s="129"/>
       <c r="J11" s="122" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K11" s="118">
         <v>112394</v>
@@ -3387,7 +3392,7 @@
       <c r="D12" s="131"/>
       <c r="E12" s="131"/>
       <c r="J12" s="122" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K12" s="118">
         <v>-68118</v>
@@ -3401,7 +3406,7 @@
       <c r="D13" s="115"/>
       <c r="E13" s="115"/>
       <c r="J13" s="122" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K13" s="118">
         <f>SUM(K11:K12)</f>
@@ -3425,7 +3430,7 @@
       <c r="D15" s="115"/>
       <c r="E15" s="115"/>
       <c r="J15" s="122" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K15" s="118">
         <v>-22401</v>
@@ -3440,7 +3445,7 @@
       <c r="E16" s="131"/>
       <c r="H16" s="20"/>
       <c r="J16" s="122" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K16" s="118">
         <f>SUM(K13:K15)</f>
@@ -3456,7 +3461,7 @@
       <c r="D17" s="115"/>
       <c r="E17" s="115"/>
       <c r="J17" s="122" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K17" s="118"/>
       <c r="L17" s="123"/>
@@ -3466,7 +3471,7 @@
       <c r="D18" s="131"/>
       <c r="E18" s="131"/>
       <c r="J18" s="122" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K18" s="118">
         <v>3750</v>
@@ -3480,7 +3485,7 @@
       <c r="D19" s="115"/>
       <c r="E19" s="115"/>
       <c r="J19" s="122" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K19" s="118">
         <v>-3239</v>
@@ -3494,7 +3499,7 @@
       <c r="D20" s="131"/>
       <c r="E20" s="131"/>
       <c r="J20" s="122" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K20" s="118">
         <v>-7248</v>
@@ -3508,7 +3513,7 @@
       <c r="D21" s="115"/>
       <c r="E21" s="115"/>
       <c r="J21" s="122" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K21" s="118">
         <f>SUM(K16:K20)</f>
@@ -3525,7 +3530,7 @@
       <c r="E22" s="131"/>
       <c r="I22" s="117"/>
       <c r="J22" s="122" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K22" s="118">
         <v>-4938</v>
@@ -3539,7 +3544,7 @@
       <c r="D23" s="115"/>
       <c r="E23" s="115"/>
       <c r="J23" s="122" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K23" s="118">
         <v>-3060</v>
@@ -3553,7 +3558,7 @@
       <c r="D24" s="131"/>
       <c r="E24" s="131"/>
       <c r="J24" s="122" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K24" s="118">
         <f>SUM(K21:K23)</f>
@@ -3592,7 +3597,7 @@
     </row>
     <row r="29" spans="3:13">
       <c r="C29" s="132" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D29" s="115">
         <f>SUM(D12:D28)</f>
@@ -3605,7 +3610,7 @@
     </row>
     <row r="30" spans="3:13">
       <c r="C30" s="100" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D30" s="104"/>
       <c r="E30" s="104"/>
@@ -3697,7 +3702,7 @@
     </row>
     <row r="48" spans="3:5">
       <c r="C48" s="130" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D48" s="131">
         <f>SUM(D31:D47)</f>
@@ -3710,7 +3715,7 @@
     </row>
     <row r="49" spans="3:10">
       <c r="C49" s="132" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D49" s="115">
         <f>D48+D29</f>
@@ -3724,14 +3729,14 @@
     </row>
     <row r="50" spans="3:10">
       <c r="C50" s="97" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D50" s="99"/>
       <c r="E50" s="99"/>
     </row>
     <row r="51" spans="3:10">
       <c r="C51" s="102" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D51" s="105"/>
       <c r="E51" s="105"/>
@@ -3824,7 +3829,7 @@
     </row>
     <row r="69" spans="3:10">
       <c r="C69" s="132" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D69" s="115">
         <f>SUM(D52:D68)</f>
@@ -3838,7 +3843,7 @@
     </row>
     <row r="70" spans="3:10">
       <c r="C70" s="100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D70" s="104"/>
       <c r="E70" s="104"/>
@@ -3948,7 +3953,7 @@
     </row>
     <row r="88" spans="3:10">
       <c r="C88" s="132" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D88" s="115">
         <f>SUM(D71:D87)</f>
@@ -3961,7 +3966,7 @@
     </row>
     <row r="89" spans="3:10">
       <c r="C89" s="97" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D89" s="99"/>
       <c r="E89" s="99"/>
@@ -4018,7 +4023,7 @@
     </row>
     <row r="100" spans="3:9">
       <c r="C100" s="130" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D100" s="131">
         <f>SUM(D90:D99)</f>
@@ -4031,7 +4036,7 @@
     </row>
     <row r="101" spans="3:9">
       <c r="C101" s="132" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D101" s="115">
         <f>D100+D88+D69</f>
@@ -4150,17 +4155,17 @@
       <c r="AI2" s="89"/>
     </row>
     <row r="3" spans="3:35" ht="18.75">
-      <c r="C3" s="135" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="135"/>
-      <c r="E3" s="135"/>
-      <c r="F3" s="135"/>
-      <c r="G3" s="135"/>
-      <c r="H3" s="135"/>
-      <c r="I3" s="135"/>
-      <c r="J3" s="135"/>
-      <c r="K3" s="135"/>
+      <c r="C3" s="139" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
       <c r="M3" s="89"/>
       <c r="N3" s="89"/>
       <c r="O3" s="89"/>
@@ -4222,7 +4227,7 @@
     <row r="5" spans="3:35" ht="18.75" customHeight="1" thickTop="1">
       <c r="C5" s="9"/>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M5" s="89"/>
       <c r="N5" s="89"/>
@@ -4250,7 +4255,7 @@
     </row>
     <row r="6" spans="3:35">
       <c r="D6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M6" s="89"/>
       <c r="N6" s="89"/>
@@ -4306,7 +4311,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="26"/>
       <c r="M8" s="89"/>
@@ -4335,7 +4340,7 @@
     </row>
     <row r="9" spans="3:35">
       <c r="D9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="M9" s="89"/>
       <c r="N9" s="90">
@@ -4367,16 +4372,16 @@
     </row>
     <row r="10" spans="3:35">
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M10" s="89"/>
       <c r="N10" s="89" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O10" s="89"/>
       <c r="P10" s="89"/>
       <c r="Q10" s="89" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="R10" s="89"/>
       <c r="S10" s="89"/>
@@ -4435,22 +4440,22 @@
       <c r="AI11" s="89"/>
     </row>
     <row r="12" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D12" s="137" t="s">
+      <c r="D12" s="135" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="135"/>
+      <c r="F12" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="141">
+      <c r="G12" s="151">
         <f>'Estados Financieros Comparativo'!D29</f>
         <v>0</v>
       </c>
-      <c r="H12" s="141"/>
-      <c r="I12" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="142" t="e">
+      <c r="H12" s="151"/>
+      <c r="I12" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="146" t="e">
         <f>G12/G13</f>
         <v>#DIV/0!</v>
       </c>
@@ -4485,18 +4490,18 @@
       <c r="AI12" s="89"/>
     </row>
     <row r="13" spans="3:35">
-      <c r="D13" s="136" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="136"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="143">
+      <c r="D13" s="138" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="138"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="145">
         <f>'Estados Financieros Comparativo'!D69</f>
         <v>0</v>
       </c>
-      <c r="H13" s="143"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="142"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="146"/>
       <c r="M13" s="89"/>
       <c r="N13" s="89"/>
       <c r="O13" s="89"/>
@@ -4524,12 +4529,12 @@
     <row r="14" spans="3:35">
       <c r="M14" s="89"/>
       <c r="N14" s="89" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="O14" s="89"/>
       <c r="P14" s="89"/>
       <c r="Q14" s="89" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="R14" s="89"/>
       <c r="S14" s="89"/>
@@ -4552,7 +4557,7 @@
     </row>
     <row r="15" spans="3:35">
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M15" s="89"/>
       <c r="N15" s="91">
@@ -4592,7 +4597,7 @@
     </row>
     <row r="16" spans="3:35">
       <c r="D16" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M16" s="89"/>
       <c r="N16" s="91">
@@ -4626,7 +4631,7 @@
     </row>
     <row r="17" spans="3:35">
       <c r="D17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M17" s="89"/>
       <c r="N17" s="89"/>
@@ -4655,12 +4660,12 @@
     <row r="18" spans="3:35">
       <c r="M18" s="89"/>
       <c r="N18" s="89" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="O18" s="89"/>
       <c r="P18" s="89"/>
       <c r="Q18" s="89" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="R18" s="89"/>
       <c r="S18" s="89"/>
@@ -4686,7 +4691,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E19" s="26"/>
       <c r="M19" s="89"/>
@@ -4727,7 +4732,7 @@
     </row>
     <row r="20" spans="3:35">
       <c r="D20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="M20" s="89"/>
       <c r="N20" s="91">
@@ -4761,7 +4766,7 @@
     </row>
     <row r="21" spans="3:35">
       <c r="D21" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M21" s="89"/>
       <c r="N21" s="89"/>
@@ -4790,12 +4795,12 @@
     <row r="22" spans="3:35">
       <c r="M22" s="89"/>
       <c r="N22" s="89" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O22" s="89"/>
       <c r="P22" s="89"/>
       <c r="Q22" s="89" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="R22" s="89"/>
       <c r="S22" s="89"/>
@@ -4817,22 +4822,22 @@
       <c r="AI22" s="89"/>
     </row>
     <row r="23" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D23" s="137" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="137"/>
-      <c r="F23" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="141">
+      <c r="D23" s="135" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="135"/>
+      <c r="F23" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="151">
         <f>'Estados Financieros Comparativo'!D29-'Estados Financieros Comparativo'!D15</f>
         <v>0</v>
       </c>
-      <c r="H23" s="141"/>
-      <c r="I23" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="142" t="e">
+      <c r="H23" s="151"/>
+      <c r="I23" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="146" t="e">
         <f>G23/G24</f>
         <v>#DIV/0!</v>
       </c>
@@ -4873,18 +4878,18 @@
       <c r="AI23" s="89"/>
     </row>
     <row r="24" spans="3:35">
-      <c r="D24" s="136" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="136"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="143">
+      <c r="D24" s="138" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="138"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="145">
         <f>'Estados Financieros Comparativo'!D69</f>
         <v>0</v>
       </c>
-      <c r="H24" s="143"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="142"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="146"/>
       <c r="M24" s="89"/>
       <c r="N24" s="91">
         <f>'Estados Financieros Comparativo'!D96</f>
@@ -4942,16 +4947,16 @@
     </row>
     <row r="26" spans="3:35">
       <c r="D26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M26" s="89"/>
       <c r="N26" s="89" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="O26" s="89"/>
       <c r="P26" s="89"/>
       <c r="Q26" s="89" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="R26" s="89"/>
       <c r="S26" s="89"/>
@@ -4974,7 +4979,7 @@
     </row>
     <row r="27" spans="3:35">
       <c r="D27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="M27" s="89"/>
       <c r="N27" s="91">
@@ -5014,7 +5019,7 @@
     </row>
     <row r="28" spans="3:35">
       <c r="D28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="M28" s="89"/>
       <c r="N28" s="91">
@@ -5076,7 +5081,7 @@
         <v>3</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E30" s="26"/>
       <c r="M30" s="89"/>
@@ -5105,7 +5110,7 @@
     </row>
     <row r="31" spans="3:35">
       <c r="D31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M31" s="89"/>
       <c r="N31" s="89"/>
@@ -5133,7 +5138,7 @@
     </row>
     <row r="32" spans="3:35">
       <c r="D32" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="M32" s="89"/>
       <c r="N32" s="89"/>
@@ -5185,22 +5190,22 @@
       <c r="AI33" s="89"/>
     </row>
     <row r="34" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D34" s="137" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="137"/>
-      <c r="F34" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="141">
+      <c r="D34" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="135"/>
+      <c r="F34" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="151">
         <f>'Estados Financieros Comparativo'!D12</f>
         <v>0</v>
       </c>
-      <c r="H34" s="141"/>
-      <c r="I34" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="J34" s="142" t="e">
+      <c r="H34" s="151"/>
+      <c r="I34" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" s="146" t="e">
         <f>G34/G35</f>
         <v>#DIV/0!</v>
       </c>
@@ -5229,18 +5234,18 @@
       <c r="AI34" s="89"/>
     </row>
     <row r="35" spans="3:35">
-      <c r="D35" s="136" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="136"/>
-      <c r="F35" s="138"/>
-      <c r="G35" s="143">
+      <c r="D35" s="138" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="138"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="145">
         <f>'Estados Financieros Comparativo'!D69</f>
         <v>0</v>
       </c>
-      <c r="H35" s="143"/>
-      <c r="I35" s="138"/>
-      <c r="J35" s="142"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="146"/>
       <c r="M35" s="89"/>
       <c r="N35" s="89"/>
       <c r="O35" s="89"/>
@@ -5292,7 +5297,7 @@
     </row>
     <row r="37" spans="3:35">
       <c r="D37" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M37" s="89"/>
       <c r="N37" s="89"/>
@@ -5320,7 +5325,7 @@
     </row>
     <row r="38" spans="3:35">
       <c r="D38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M38" s="89"/>
       <c r="N38" s="89"/>
@@ -5348,7 +5353,7 @@
     </row>
     <row r="39" spans="3:35">
       <c r="D39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="M39" s="89"/>
       <c r="N39" s="89"/>
@@ -5404,7 +5409,7 @@
         <v>4</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E41" s="26"/>
       <c r="M41" s="89"/>
@@ -5433,7 +5438,7 @@
     </row>
     <row r="42" spans="3:35">
       <c r="D42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="M42" s="89"/>
       <c r="N42" s="89"/>
@@ -5461,7 +5466,7 @@
     </row>
     <row r="43" spans="3:35">
       <c r="D43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="M43" s="89"/>
       <c r="N43" s="89"/>
@@ -5489,7 +5494,7 @@
     </row>
     <row r="44" spans="3:35">
       <c r="D44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="M44" s="89"/>
       <c r="N44" s="89"/>
@@ -5517,7 +5522,7 @@
     </row>
     <row r="45" spans="3:35">
       <c r="D45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="M45" s="89"/>
       <c r="N45" s="89"/>
@@ -5619,23 +5624,23 @@
       <c r="AI48" s="89"/>
     </row>
     <row r="49" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D49" s="137" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="H49" s="139">
+      <c r="D49" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="135"/>
+      <c r="F49" s="135"/>
+      <c r="G49" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" s="149">
         <f>'Estados Financieros Comparativo'!D12+'Estados Financieros Comparativo'!D13+'Estados Financieros Comparativo'!D14</f>
         <v>0</v>
       </c>
-      <c r="I49" s="139"/>
-      <c r="J49" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="K49" s="146">
+      <c r="I49" s="149"/>
+      <c r="J49" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="K49" s="148">
         <f>H49/H50</f>
         <v>0</v>
       </c>
@@ -5664,19 +5669,19 @@
       <c r="AI49" s="89"/>
     </row>
     <row r="50" spans="3:35">
-      <c r="D50" s="136" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="136"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="138"/>
-      <c r="H50" s="140">
+      <c r="D50" s="138" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="138"/>
+      <c r="F50" s="138"/>
+      <c r="G50" s="136"/>
+      <c r="H50" s="150">
         <f>'Estados Financieros Comparativo'!K13/365</f>
         <v>121.30410958904109</v>
       </c>
-      <c r="I50" s="140"/>
-      <c r="J50" s="138"/>
-      <c r="K50" s="146"/>
+      <c r="I50" s="150"/>
+      <c r="J50" s="136"/>
+      <c r="K50" s="148"/>
       <c r="M50" s="95"/>
       <c r="N50" s="89"/>
       <c r="O50" s="89"/>
@@ -5703,7 +5708,7 @@
     </row>
     <row r="51" spans="3:35">
       <c r="K51" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M51" s="89"/>
       <c r="N51" s="89"/>
@@ -5756,7 +5761,7 @@
     </row>
     <row r="53" spans="3:35">
       <c r="D53" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M53" s="89"/>
       <c r="N53" s="89"/>
@@ -5784,7 +5789,7 @@
     </row>
     <row r="54" spans="3:35">
       <c r="D54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="M54" s="89"/>
       <c r="N54" s="89"/>
@@ -5812,7 +5817,7 @@
     </row>
     <row r="55" spans="3:35">
       <c r="D55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M55" s="89"/>
       <c r="N55" s="89"/>
@@ -5868,7 +5873,7 @@
         <v>5</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E57" s="26"/>
       <c r="M57" s="89"/>
@@ -5897,7 +5902,7 @@
     </row>
     <row r="58" spans="3:35">
       <c r="D58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="M58" s="89"/>
       <c r="N58" s="89"/>
@@ -5925,7 +5930,7 @@
     </row>
     <row r="59" spans="3:35">
       <c r="D59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="M59" s="89"/>
       <c r="N59" s="89"/>
@@ -5953,7 +5958,7 @@
     </row>
     <row r="60" spans="3:35">
       <c r="D60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M60" s="89"/>
       <c r="N60" s="89"/>
@@ -6005,14 +6010,14 @@
       <c r="AI61" s="89"/>
     </row>
     <row r="62" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D62" s="137" t="s">
+      <c r="D62" s="135" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="135"/>
+      <c r="F62" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="E62" s="137"/>
-      <c r="F62" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" s="147">
+      <c r="G62" s="143">
         <f>'Estados Financieros Comparativo'!D29-'Estados Financieros Comparativo'!D69</f>
         <v>0</v>
       </c>
@@ -6041,12 +6046,12 @@
       <c r="AI62" s="89"/>
     </row>
     <row r="63" spans="3:35">
-      <c r="D63" s="136" t="s">
-        <v>38</v>
-      </c>
-      <c r="E63" s="136"/>
-      <c r="F63" s="138"/>
-      <c r="G63" s="147"/>
+      <c r="D63" s="138" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="138"/>
+      <c r="F63" s="136"/>
+      <c r="G63" s="143"/>
       <c r="M63" s="89"/>
       <c r="N63" s="89"/>
       <c r="O63" s="89"/>
@@ -6098,7 +6103,7 @@
     </row>
     <row r="65" spans="3:35">
       <c r="D65" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M65" s="89"/>
       <c r="N65" s="89"/>
@@ -6126,7 +6131,7 @@
     </row>
     <row r="66" spans="3:35">
       <c r="D66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M66" s="89"/>
       <c r="N66" s="89"/>
@@ -6154,7 +6159,7 @@
     </row>
     <row r="67" spans="3:35">
       <c r="D67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M67" s="89"/>
       <c r="N67" s="89"/>
@@ -6182,7 +6187,7 @@
     </row>
     <row r="68" spans="3:35">
       <c r="D68" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="M68" s="89"/>
       <c r="N68" s="89"/>
@@ -6210,7 +6215,7 @@
     </row>
     <row r="69" spans="3:35">
       <c r="D69" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="M69" s="89"/>
       <c r="N69" s="89"/>
@@ -6287,17 +6292,17 @@
       <c r="AI71" s="89"/>
     </row>
     <row r="72" spans="3:35" ht="18.75">
-      <c r="C72" s="135" t="s">
-        <v>73</v>
-      </c>
-      <c r="D72" s="135"/>
-      <c r="E72" s="135"/>
-      <c r="F72" s="135"/>
-      <c r="G72" s="135"/>
-      <c r="H72" s="135"/>
-      <c r="I72" s="135"/>
-      <c r="J72" s="135"/>
-      <c r="K72" s="135"/>
+      <c r="C72" s="139" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" s="139"/>
+      <c r="E72" s="139"/>
+      <c r="F72" s="139"/>
+      <c r="G72" s="139"/>
+      <c r="H72" s="139"/>
+      <c r="I72" s="139"/>
+      <c r="J72" s="139"/>
+      <c r="K72" s="139"/>
       <c r="M72" s="89"/>
       <c r="N72" s="89"/>
       <c r="O72" s="89"/>
@@ -6358,7 +6363,7 @@
     </row>
     <row r="74" spans="3:35" ht="18" customHeight="1">
       <c r="D74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="M74" s="89"/>
       <c r="N74" s="89"/>
@@ -6386,7 +6391,7 @@
     </row>
     <row r="75" spans="3:35">
       <c r="D75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M75" s="89"/>
       <c r="N75" s="89"/>
@@ -6442,7 +6447,7 @@
         <v>1</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E77" s="29"/>
       <c r="F77" s="29"/>
@@ -6472,7 +6477,7 @@
     </row>
     <row r="78" spans="3:35">
       <c r="D78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M78" s="89"/>
       <c r="N78" s="89"/>
@@ -6500,7 +6505,7 @@
     </row>
     <row r="79" spans="3:35">
       <c r="D79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M79" s="89"/>
       <c r="N79" s="89"/>
@@ -6552,21 +6557,21 @@
       <c r="AI80" s="89"/>
     </row>
     <row r="81" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D81" s="137" t="s">
-        <v>38</v>
-      </c>
-      <c r="E81" s="137"/>
-      <c r="F81" s="138" t="s">
-        <v>39</v>
+      <c r="D81" s="135" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="135"/>
+      <c r="F81" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G81" s="31">
         <f>'Estados Financieros Comparativo'!D69</f>
         <v>0</v>
       </c>
-      <c r="H81" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I81" s="145" t="e">
+      <c r="H81" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I81" s="144" t="e">
         <f>G81/G82</f>
         <v>#DIV/0!</v>
       </c>
@@ -6595,17 +6600,17 @@
       <c r="AI81" s="89"/>
     </row>
     <row r="82" spans="3:35">
-      <c r="D82" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="E82" s="136"/>
-      <c r="F82" s="138"/>
+      <c r="D82" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="E82" s="138"/>
+      <c r="F82" s="136"/>
       <c r="G82" s="4">
         <f>'Estados Financieros Comparativo'!D100</f>
         <v>0</v>
       </c>
-      <c r="H82" s="138"/>
-      <c r="I82" s="145"/>
+      <c r="H82" s="136"/>
+      <c r="I82" s="144"/>
       <c r="M82" s="89"/>
       <c r="N82" s="89"/>
       <c r="O82" s="89"/>
@@ -6657,7 +6662,7 @@
     </row>
     <row r="84" spans="3:35">
       <c r="D84" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M84" s="89"/>
       <c r="N84" s="89"/>
@@ -6685,7 +6690,7 @@
     </row>
     <row r="85" spans="3:35">
       <c r="D85" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="M85" s="89"/>
       <c r="N85" s="89"/>
@@ -6713,7 +6718,7 @@
     </row>
     <row r="86" spans="3:35">
       <c r="D86" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="M86" s="89"/>
       <c r="N86" s="89"/>
@@ -6741,7 +6746,7 @@
     </row>
     <row r="87" spans="3:35">
       <c r="D87" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M87" s="89"/>
       <c r="N87" s="89"/>
@@ -6797,7 +6802,7 @@
         <v>2</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E89" s="29"/>
       <c r="F89" s="29"/>
@@ -6827,7 +6832,7 @@
     </row>
     <row r="90" spans="3:35">
       <c r="D90" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M90" s="89"/>
       <c r="N90" s="89"/>
@@ -6855,7 +6860,7 @@
     </row>
     <row r="91" spans="3:35">
       <c r="D91" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="M91" s="89"/>
       <c r="N91" s="89"/>
@@ -6907,21 +6912,21 @@
       <c r="AI92" s="89"/>
     </row>
     <row r="93" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D93" s="137" t="s">
-        <v>85</v>
-      </c>
-      <c r="E93" s="137"/>
-      <c r="F93" s="138" t="s">
-        <v>39</v>
+      <c r="D93" s="135" t="s">
+        <v>83</v>
+      </c>
+      <c r="E93" s="135"/>
+      <c r="F93" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G93" s="31">
         <f>'Estados Financieros Comparativo'!D88</f>
         <v>0</v>
       </c>
-      <c r="H93" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I93" s="144" t="e">
+      <c r="H93" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I93" s="147" t="e">
         <f>G93/G94</f>
         <v>#DIV/0!</v>
       </c>
@@ -6950,17 +6955,17 @@
       <c r="AI93" s="89"/>
     </row>
     <row r="94" spans="3:35">
-      <c r="D94" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="E94" s="136"/>
-      <c r="F94" s="138"/>
+      <c r="D94" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="E94" s="138"/>
+      <c r="F94" s="136"/>
       <c r="G94" s="4">
         <f>'Estados Financieros Comparativo'!D100</f>
         <v>0</v>
       </c>
-      <c r="H94" s="138"/>
-      <c r="I94" s="144"/>
+      <c r="H94" s="136"/>
+      <c r="I94" s="147"/>
       <c r="M94" s="89"/>
       <c r="N94" s="89"/>
       <c r="O94" s="89"/>
@@ -7012,7 +7017,7 @@
     </row>
     <row r="96" spans="3:35">
       <c r="D96" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M96" s="89"/>
       <c r="N96" s="89"/>
@@ -7040,7 +7045,7 @@
     </row>
     <row r="97" spans="3:35">
       <c r="D97" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M97" s="89"/>
       <c r="N97" s="89"/>
@@ -7068,7 +7073,7 @@
     </row>
     <row r="98" spans="3:35">
       <c r="D98" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M98" s="89"/>
       <c r="N98" s="89"/>
@@ -7124,7 +7129,7 @@
         <v>3</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E100" s="26"/>
       <c r="F100" s="26"/>
@@ -7154,7 +7159,7 @@
     </row>
     <row r="101" spans="3:35">
       <c r="D101" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="M101" s="89"/>
       <c r="N101" s="89"/>
@@ -7182,7 +7187,7 @@
     </row>
     <row r="102" spans="3:35">
       <c r="D102" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M102" s="89"/>
       <c r="N102" s="89"/>
@@ -7234,21 +7239,21 @@
       <c r="AI103" s="89"/>
     </row>
     <row r="104" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D104" s="137" t="s">
-        <v>93</v>
-      </c>
-      <c r="E104" s="137"/>
-      <c r="F104" s="138" t="s">
-        <v>39</v>
+      <c r="D104" s="135" t="s">
+        <v>91</v>
+      </c>
+      <c r="E104" s="135"/>
+      <c r="F104" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G104" s="31">
         <f>'Estados Financieros Comparativo'!D69+'Estados Financieros Comparativo'!D88</f>
         <v>0</v>
       </c>
-      <c r="H104" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I104" s="148" t="e">
+      <c r="H104" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104" s="137" t="e">
         <f>G104/G105</f>
         <v>#DIV/0!</v>
       </c>
@@ -7277,17 +7282,17 @@
       <c r="AI104" s="89"/>
     </row>
     <row r="105" spans="3:35">
-      <c r="D105" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="E105" s="136"/>
-      <c r="F105" s="138"/>
+      <c r="D105" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="E105" s="138"/>
+      <c r="F105" s="136"/>
       <c r="G105" s="4">
         <f>'Estados Financieros Comparativo'!D100</f>
         <v>0</v>
       </c>
-      <c r="H105" s="138"/>
-      <c r="I105" s="148"/>
+      <c r="H105" s="136"/>
+      <c r="I105" s="137"/>
       <c r="M105" s="89"/>
       <c r="N105" s="89"/>
       <c r="O105" s="89"/>
@@ -7339,7 +7344,7 @@
     </row>
     <row r="107" spans="3:35">
       <c r="D107" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M107" s="89"/>
       <c r="N107" s="89"/>
@@ -7367,7 +7372,7 @@
     </row>
     <row r="108" spans="3:35">
       <c r="D108" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="M108" s="89"/>
       <c r="N108" s="89"/>
@@ -7395,7 +7400,7 @@
     </row>
     <row r="109" spans="3:35">
       <c r="D109" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M109" s="89"/>
       <c r="N109" s="89"/>
@@ -7423,7 +7428,7 @@
     </row>
     <row r="110" spans="3:35">
       <c r="D110" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M110" s="89"/>
       <c r="N110" s="89"/>
@@ -7479,7 +7484,7 @@
         <v>4</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E112" s="26"/>
       <c r="F112" s="26"/>
@@ -7509,7 +7514,7 @@
     </row>
     <row r="113" spans="3:35">
       <c r="D113" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M113" s="89"/>
       <c r="N113" s="89"/>
@@ -7537,7 +7542,7 @@
     </row>
     <row r="114" spans="3:35">
       <c r="D114" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M114" s="89"/>
       <c r="N114" s="89"/>
@@ -7589,21 +7594,21 @@
       <c r="AI115" s="89"/>
     </row>
     <row r="116" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D116" s="137" t="s">
-        <v>85</v>
-      </c>
-      <c r="E116" s="137"/>
-      <c r="F116" s="138" t="s">
-        <v>39</v>
+      <c r="D116" s="135" t="s">
+        <v>83</v>
+      </c>
+      <c r="E116" s="135"/>
+      <c r="F116" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G116" s="31">
         <f>'Estados Financieros Comparativo'!D88</f>
         <v>0</v>
       </c>
-      <c r="H116" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I116" s="145" t="e">
+      <c r="H116" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I116" s="144" t="e">
         <f>G116/G117</f>
         <v>#DIV/0!</v>
       </c>
@@ -7632,17 +7637,17 @@
       <c r="AI116" s="89"/>
     </row>
     <row r="117" spans="3:35">
-      <c r="D117" s="136" t="s">
-        <v>100</v>
-      </c>
-      <c r="E117" s="136"/>
-      <c r="F117" s="138"/>
+      <c r="D117" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="E117" s="138"/>
+      <c r="F117" s="136"/>
       <c r="G117" s="4">
         <f>'Estados Financieros Comparativo'!D46+'Estados Financieros Comparativo'!D47</f>
         <v>0</v>
       </c>
-      <c r="H117" s="138"/>
-      <c r="I117" s="145"/>
+      <c r="H117" s="136"/>
+      <c r="I117" s="144"/>
       <c r="M117" s="89"/>
       <c r="N117" s="89"/>
       <c r="O117" s="89"/>
@@ -7694,7 +7699,7 @@
     </row>
     <row r="119" spans="3:35">
       <c r="D119" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M119" s="89"/>
       <c r="N119" s="89"/>
@@ -7722,7 +7727,7 @@
     </row>
     <row r="120" spans="3:35">
       <c r="D120" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="M120" s="89"/>
       <c r="N120" s="89"/>
@@ -7750,7 +7755,7 @@
     </row>
     <row r="121" spans="3:35">
       <c r="D121" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="M121" s="89"/>
       <c r="N121" s="89"/>
@@ -7806,7 +7811,7 @@
         <v>5</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E123" s="26"/>
       <c r="F123" s="26"/>
@@ -7836,7 +7841,7 @@
     </row>
     <row r="124" spans="3:35">
       <c r="D124" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="M124" s="89"/>
       <c r="N124" s="89"/>
@@ -7888,21 +7893,21 @@
       <c r="AI125" s="89"/>
     </row>
     <row r="126" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D126" s="137" t="s">
-        <v>93</v>
-      </c>
-      <c r="E126" s="137"/>
-      <c r="F126" s="138" t="s">
-        <v>39</v>
+      <c r="D126" s="135" t="s">
+        <v>91</v>
+      </c>
+      <c r="E126" s="135"/>
+      <c r="F126" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G126" s="31">
         <f>'Estados Financieros Comparativo'!D69+'Estados Financieros Comparativo'!D88</f>
         <v>0</v>
       </c>
-      <c r="H126" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I126" s="145" t="e">
+      <c r="H126" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I126" s="144" t="e">
         <f>G126/G127</f>
         <v>#DIV/0!</v>
       </c>
@@ -7931,17 +7936,17 @@
       <c r="AI126" s="89"/>
     </row>
     <row r="127" spans="3:35">
-      <c r="D127" s="136" t="s">
-        <v>104</v>
-      </c>
-      <c r="E127" s="136"/>
-      <c r="F127" s="138"/>
+      <c r="D127" s="138" t="s">
+        <v>102</v>
+      </c>
+      <c r="E127" s="138"/>
+      <c r="F127" s="136"/>
       <c r="G127" s="4">
         <f>'Estados Financieros Comparativo'!D49</f>
         <v>0</v>
       </c>
-      <c r="H127" s="138"/>
-      <c r="I127" s="145"/>
+      <c r="H127" s="136"/>
+      <c r="I127" s="144"/>
       <c r="M127" s="89"/>
       <c r="N127" s="89"/>
       <c r="O127" s="89"/>
@@ -7993,7 +7998,7 @@
     </row>
     <row r="129" spans="3:35">
       <c r="D129" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M129" s="89"/>
       <c r="N129" s="89"/>
@@ -8021,7 +8026,7 @@
     </row>
     <row r="130" spans="3:35">
       <c r="D130" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="M130" s="89"/>
       <c r="N130" s="89"/>
@@ -8049,7 +8054,7 @@
     </row>
     <row r="131" spans="3:35">
       <c r="D131" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="M131" s="89"/>
       <c r="N131" s="89"/>
@@ -8077,7 +8082,7 @@
     </row>
     <row r="132" spans="3:35">
       <c r="D132" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="M132" s="89"/>
       <c r="N132" s="89"/>
@@ -8133,7 +8138,7 @@
         <v>6</v>
       </c>
       <c r="D134" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E134" s="26"/>
       <c r="F134" s="26"/>
@@ -8163,7 +8168,7 @@
     </row>
     <row r="135" spans="3:35">
       <c r="D135" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="M135" s="89"/>
       <c r="N135" s="89"/>
@@ -8191,7 +8196,7 @@
     </row>
     <row r="136" spans="3:35">
       <c r="D136" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M136" s="89"/>
       <c r="N136" s="89"/>
@@ -8243,21 +8248,21 @@
       <c r="AI137" s="89"/>
     </row>
     <row r="138" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D138" s="137" t="s">
-        <v>100</v>
-      </c>
-      <c r="E138" s="137"/>
-      <c r="F138" s="138" t="s">
-        <v>39</v>
+      <c r="D138" s="135" t="s">
+        <v>98</v>
+      </c>
+      <c r="E138" s="135"/>
+      <c r="F138" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G138" s="31">
         <f>'Estados Financieros Comparativo'!D46+'Estados Financieros Comparativo'!D47</f>
         <v>0</v>
       </c>
-      <c r="H138" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I138" s="145" t="e">
+      <c r="H138" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I138" s="144" t="e">
         <f>G138/G139</f>
         <v>#DIV/0!</v>
       </c>
@@ -8286,17 +8291,17 @@
       <c r="AI138" s="89"/>
     </row>
     <row r="139" spans="3:35">
-      <c r="D139" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="E139" s="136"/>
-      <c r="F139" s="138"/>
+      <c r="D139" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="E139" s="138"/>
+      <c r="F139" s="136"/>
       <c r="G139" s="4">
         <f>'Estados Financieros Comparativo'!D100</f>
         <v>0</v>
       </c>
-      <c r="H139" s="138"/>
-      <c r="I139" s="145"/>
+      <c r="H139" s="136"/>
+      <c r="I139" s="144"/>
       <c r="M139" s="89"/>
       <c r="N139" s="89"/>
       <c r="O139" s="89"/>
@@ -8348,7 +8353,7 @@
     </row>
     <row r="141" spans="3:35">
       <c r="D141" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M141" s="89"/>
       <c r="N141" s="89"/>
@@ -8376,7 +8381,7 @@
     </row>
     <row r="142" spans="3:35">
       <c r="D142" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="M142" s="89"/>
       <c r="N142" s="89"/>
@@ -8404,7 +8409,7 @@
     </row>
     <row r="143" spans="3:35">
       <c r="D143" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="M143" s="89"/>
       <c r="N143" s="89"/>
@@ -8432,7 +8437,7 @@
     </row>
     <row r="144" spans="3:35">
       <c r="D144" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="M144" s="89"/>
       <c r="N144" s="89"/>
@@ -8460,7 +8465,7 @@
     </row>
     <row r="145" spans="3:35">
       <c r="D145" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M145" s="89"/>
       <c r="N145" s="89"/>
@@ -8488,7 +8493,7 @@
     </row>
     <row r="146" spans="3:35">
       <c r="D146" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M146" s="89"/>
       <c r="N146" s="89"/>
@@ -8540,17 +8545,17 @@
       <c r="AI147" s="89"/>
     </row>
     <row r="148" spans="3:35" ht="18.75">
-      <c r="C148" s="135" t="s">
-        <v>118</v>
-      </c>
-      <c r="D148" s="135"/>
-      <c r="E148" s="135"/>
-      <c r="F148" s="135"/>
-      <c r="G148" s="135"/>
-      <c r="H148" s="135"/>
-      <c r="I148" s="135"/>
-      <c r="J148" s="135"/>
-      <c r="K148" s="135"/>
+      <c r="C148" s="139" t="s">
+        <v>116</v>
+      </c>
+      <c r="D148" s="139"/>
+      <c r="E148" s="139"/>
+      <c r="F148" s="139"/>
+      <c r="G148" s="139"/>
+      <c r="H148" s="139"/>
+      <c r="I148" s="139"/>
+      <c r="J148" s="139"/>
+      <c r="K148" s="139"/>
       <c r="M148" s="89"/>
       <c r="N148" s="89"/>
       <c r="O148" s="89"/>
@@ -8577,7 +8582,7 @@
     </row>
     <row r="149" spans="3:35">
       <c r="D149" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="M149" s="89"/>
       <c r="N149" s="89"/>
@@ -8605,7 +8610,7 @@
     </row>
     <row r="150" spans="3:35">
       <c r="D150" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M150" s="89"/>
       <c r="N150" s="89"/>
@@ -8661,7 +8666,7 @@
         <v>1</v>
       </c>
       <c r="D152" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E152" s="26"/>
       <c r="F152" s="26"/>
@@ -8691,7 +8696,7 @@
     </row>
     <row r="153" spans="3:35">
       <c r="D153" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M153" s="89"/>
       <c r="N153" s="89"/>
@@ -8719,7 +8724,7 @@
     </row>
     <row r="154" spans="3:35">
       <c r="D154" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M154" s="89"/>
       <c r="N154" s="89"/>
@@ -8747,7 +8752,7 @@
     </row>
     <row r="155" spans="3:35">
       <c r="D155" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M155" s="89"/>
       <c r="N155" s="89"/>
@@ -8775,7 +8780,7 @@
     </row>
     <row r="156" spans="3:35">
       <c r="D156" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M156" s="89"/>
       <c r="N156" s="89"/>
@@ -8827,20 +8832,20 @@
       <c r="AI157" s="89"/>
     </row>
     <row r="158" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D158" s="137" t="s">
-        <v>124</v>
-      </c>
-      <c r="E158" s="137"/>
-      <c r="F158" s="138" t="s">
-        <v>39</v>
+      <c r="D158" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="E158" s="135"/>
+      <c r="F158" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G158" s="31">
         <v>67436</v>
       </c>
-      <c r="H158" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I158" s="149" t="e">
+      <c r="H158" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I158" s="142" t="e">
         <f>G158/G159</f>
         <v>#DIV/0!</v>
       </c>
@@ -8869,17 +8874,17 @@
       <c r="AI158" s="89"/>
     </row>
     <row r="159" spans="3:35">
-      <c r="D159" s="136" t="s">
-        <v>125</v>
-      </c>
-      <c r="E159" s="136"/>
-      <c r="F159" s="138"/>
+      <c r="D159" s="138" t="s">
+        <v>123</v>
+      </c>
+      <c r="E159" s="138"/>
+      <c r="F159" s="136"/>
       <c r="G159" s="4">
         <f>('Estados Financieros Comparativo'!D14+'Estados Financieros Comparativo'!E14)/2</f>
         <v>0</v>
       </c>
-      <c r="H159" s="138"/>
-      <c r="I159" s="149"/>
+      <c r="H159" s="136"/>
+      <c r="I159" s="142"/>
       <c r="M159" s="89"/>
       <c r="N159" s="89"/>
       <c r="O159" s="89"/>
@@ -8931,7 +8936,7 @@
     </row>
     <row r="161" spans="3:35">
       <c r="D161" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M161" s="89"/>
       <c r="N161" s="89"/>
@@ -8959,7 +8964,7 @@
     </row>
     <row r="162" spans="3:35">
       <c r="D162" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="M162" s="89"/>
       <c r="N162" s="89"/>
@@ -8987,7 +8992,7 @@
     </row>
     <row r="163" spans="3:35">
       <c r="D163" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="M163" s="89"/>
       <c r="N163" s="89"/>
@@ -9015,7 +9020,7 @@
     </row>
     <row r="164" spans="3:35">
       <c r="D164" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="M164" s="89"/>
       <c r="N164" s="89"/>
@@ -9071,7 +9076,7 @@
         <v>2</v>
       </c>
       <c r="D166" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E166" s="26"/>
       <c r="F166" s="26"/>
@@ -9101,7 +9106,7 @@
     </row>
     <row r="167" spans="3:35">
       <c r="D167" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M167" s="89"/>
       <c r="N167" s="89"/>
@@ -9129,7 +9134,7 @@
     </row>
     <row r="168" spans="3:35">
       <c r="D168" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="M168" s="89"/>
       <c r="N168" s="89"/>
@@ -9181,20 +9186,20 @@
       <c r="AI169" s="89"/>
     </row>
     <row r="170" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D170" s="137">
+      <c r="D170" s="135">
         <v>360</v>
       </c>
-      <c r="E170" s="137"/>
-      <c r="F170" s="138" t="s">
-        <v>39</v>
+      <c r="E170" s="135"/>
+      <c r="F170" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G170" s="31">
         <v>360</v>
       </c>
-      <c r="H170" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I170" s="147" t="e">
+      <c r="H170" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I170" s="143" t="e">
         <f>G170/G171</f>
         <v>#DIV/0!</v>
       </c>
@@ -9223,17 +9228,17 @@
       <c r="AI170" s="89"/>
     </row>
     <row r="171" spans="3:35">
-      <c r="D171" s="136" t="s">
-        <v>119</v>
-      </c>
-      <c r="E171" s="136"/>
-      <c r="F171" s="138"/>
+      <c r="D171" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="E171" s="138"/>
+      <c r="F171" s="136"/>
       <c r="G171" s="3" t="e">
         <f>I158</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H171" s="138"/>
-      <c r="I171" s="147"/>
+      <c r="H171" s="136"/>
+      <c r="I171" s="143"/>
       <c r="M171" s="89"/>
       <c r="N171" s="89"/>
       <c r="O171" s="89"/>
@@ -9285,7 +9290,7 @@
     </row>
     <row r="173" spans="3:35">
       <c r="D173" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M173" s="89"/>
       <c r="N173" s="89"/>
@@ -9313,7 +9318,7 @@
     </row>
     <row r="174" spans="3:35">
       <c r="D174" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M174" s="89"/>
       <c r="N174" s="89"/>
@@ -9341,7 +9346,7 @@
     </row>
     <row r="175" spans="3:35">
       <c r="D175" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M175" s="89"/>
       <c r="N175" s="89"/>
@@ -9397,7 +9402,7 @@
         <v>3</v>
       </c>
       <c r="D177" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E177" s="26"/>
       <c r="F177" s="26"/>
@@ -9427,7 +9432,7 @@
     </row>
     <row r="178" spans="3:35">
       <c r="D178" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="M178" s="89"/>
       <c r="N178" s="89"/>
@@ -9455,7 +9460,7 @@
     </row>
     <row r="179" spans="3:35">
       <c r="D179" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M179" s="89"/>
       <c r="N179" s="89"/>
@@ -9508,7 +9513,7 @@
     </row>
     <row r="181" spans="3:35">
       <c r="D181" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="M181" s="89"/>
       <c r="N181" s="89"/>
@@ -9536,7 +9541,7 @@
     </row>
     <row r="182" spans="3:35">
       <c r="D182" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M182" s="89"/>
       <c r="N182" s="89"/>
@@ -9564,7 +9569,7 @@
     </row>
     <row r="183" spans="3:35">
       <c r="D183" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="M183" s="89"/>
       <c r="N183" s="89"/>
@@ -9616,20 +9621,20 @@
       <c r="AI184" s="89"/>
     </row>
     <row r="185" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D185" s="137" t="s">
-        <v>140</v>
-      </c>
-      <c r="E185" s="137"/>
-      <c r="F185" s="138" t="s">
-        <v>39</v>
+      <c r="D185" s="135" t="s">
+        <v>138</v>
+      </c>
+      <c r="E185" s="135"/>
+      <c r="F185" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G185" s="31">
         <v>54494</v>
       </c>
-      <c r="H185" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I185" s="147" t="e">
+      <c r="H185" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I185" s="143" t="e">
         <f>G185/G186</f>
         <v>#DIV/0!</v>
       </c>
@@ -9658,17 +9663,17 @@
       <c r="AI185" s="89"/>
     </row>
     <row r="186" spans="3:35">
-      <c r="D186" s="136" t="s">
-        <v>141</v>
-      </c>
-      <c r="E186" s="136"/>
-      <c r="F186" s="138"/>
+      <c r="D186" s="138" t="s">
+        <v>139</v>
+      </c>
+      <c r="E186" s="138"/>
+      <c r="F186" s="136"/>
       <c r="G186" s="4">
         <f>('Estados Financieros Comparativo'!D67+'Estados Financieros Comparativo'!E67)/2</f>
         <v>0</v>
       </c>
-      <c r="H186" s="138"/>
-      <c r="I186" s="147"/>
+      <c r="H186" s="136"/>
+      <c r="I186" s="143"/>
       <c r="M186" s="89"/>
       <c r="N186" s="89"/>
       <c r="O186" s="89"/>
@@ -9720,7 +9725,7 @@
     </row>
     <row r="188" spans="3:35">
       <c r="D188" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M188" s="89"/>
       <c r="N188" s="89"/>
@@ -9748,7 +9753,7 @@
     </row>
     <row r="189" spans="3:35">
       <c r="D189" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M189" s="89"/>
       <c r="N189" s="89"/>
@@ -9776,7 +9781,7 @@
     </row>
     <row r="190" spans="3:35">
       <c r="D190" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="M190" s="89"/>
       <c r="N190" s="89"/>
@@ -9804,7 +9809,7 @@
     </row>
     <row r="191" spans="3:35">
       <c r="D191" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M191" s="89"/>
       <c r="N191" s="89"/>
@@ -9860,7 +9865,7 @@
         <v>4</v>
       </c>
       <c r="D193" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E193" s="26"/>
       <c r="F193" s="26"/>
@@ -9890,7 +9895,7 @@
     </row>
     <row r="194" spans="3:35">
       <c r="D194" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M194" s="89"/>
       <c r="N194" s="89"/>
@@ -9918,7 +9923,7 @@
     </row>
     <row r="195" spans="3:35">
       <c r="D195" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M195" s="89"/>
       <c r="N195" s="89"/>
@@ -9970,21 +9975,21 @@
       <c r="AI196" s="89"/>
     </row>
     <row r="197" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D197" s="137">
+      <c r="D197" s="135">
         <v>360</v>
       </c>
-      <c r="E197" s="137"/>
-      <c r="F197" s="138" t="s">
-        <v>39</v>
+      <c r="E197" s="135"/>
+      <c r="F197" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G197" s="31">
         <f>D197</f>
         <v>360</v>
       </c>
-      <c r="H197" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I197" s="147" t="e">
+      <c r="H197" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I197" s="143" t="e">
         <f>G197/G198</f>
         <v>#DIV/0!</v>
       </c>
@@ -10013,17 +10018,17 @@
       <c r="AI197" s="89"/>
     </row>
     <row r="198" spans="3:35">
-      <c r="D198" s="136" t="s">
-        <v>134</v>
-      </c>
-      <c r="E198" s="136"/>
-      <c r="F198" s="138"/>
+      <c r="D198" s="138" t="s">
+        <v>132</v>
+      </c>
+      <c r="E198" s="138"/>
+      <c r="F198" s="136"/>
       <c r="G198" s="4" t="e">
         <f>I185</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H198" s="138"/>
-      <c r="I198" s="147"/>
+      <c r="H198" s="136"/>
+      <c r="I198" s="143"/>
       <c r="M198" s="89"/>
       <c r="N198" s="89"/>
       <c r="O198" s="89"/>
@@ -10075,7 +10080,7 @@
     </row>
     <row r="200" spans="3:35">
       <c r="D200" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M200" s="89"/>
       <c r="N200" s="89"/>
@@ -10103,7 +10108,7 @@
     </row>
     <row r="201" spans="3:35">
       <c r="D201" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="M201" s="89"/>
       <c r="N201" s="89"/>
@@ -10131,7 +10136,7 @@
     </row>
     <row r="202" spans="3:35">
       <c r="D202" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="M202" s="89"/>
       <c r="N202" s="89"/>
@@ -10187,7 +10192,7 @@
         <v>5</v>
       </c>
       <c r="D204" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E204" s="26"/>
       <c r="F204" s="26"/>
@@ -10217,7 +10222,7 @@
     </row>
     <row r="205" spans="3:35">
       <c r="D205" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M205" s="89"/>
       <c r="N205" s="89"/>
@@ -10245,7 +10250,7 @@
     </row>
     <row r="206" spans="3:35">
       <c r="D206" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M206" s="89"/>
       <c r="N206" s="89"/>
@@ -10297,21 +10302,21 @@
       <c r="AI207" s="89"/>
     </row>
     <row r="208" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D208" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="E208" s="137"/>
-      <c r="F208" s="138" t="s">
-        <v>39</v>
+      <c r="D208" s="135" t="s">
+        <v>151</v>
+      </c>
+      <c r="E208" s="135"/>
+      <c r="F208" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G208" s="31">
         <f>-'Estados Financieros Comparativo'!K12</f>
         <v>68118</v>
       </c>
-      <c r="H208" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I208" s="147" t="e">
+      <c r="H208" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I208" s="143" t="e">
         <f>G208/G209</f>
         <v>#DIV/0!</v>
       </c>
@@ -10340,17 +10345,17 @@
       <c r="AI208" s="89"/>
     </row>
     <row r="209" spans="3:35">
-      <c r="D209" s="136" t="s">
-        <v>154</v>
-      </c>
-      <c r="E209" s="136"/>
-      <c r="F209" s="138"/>
+      <c r="D209" s="138" t="s">
+        <v>152</v>
+      </c>
+      <c r="E209" s="138"/>
+      <c r="F209" s="136"/>
       <c r="G209" s="4">
         <f>('Estados Financieros Comparativo'!D15+'Estados Financieros Comparativo'!E15)/2</f>
         <v>0</v>
       </c>
-      <c r="H209" s="138"/>
-      <c r="I209" s="147"/>
+      <c r="H209" s="136"/>
+      <c r="I209" s="143"/>
       <c r="M209" s="89"/>
       <c r="N209" s="89"/>
       <c r="O209" s="89"/>
@@ -10402,7 +10407,7 @@
     </row>
     <row r="211" spans="3:35">
       <c r="D211" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M211" s="89"/>
       <c r="N211" s="89"/>
@@ -10430,7 +10435,7 @@
     </row>
     <row r="212" spans="3:35">
       <c r="D212" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M212" s="89"/>
       <c r="N212" s="89"/>
@@ -10458,7 +10463,7 @@
     </row>
     <row r="213" spans="3:35">
       <c r="D213" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M213" s="89"/>
       <c r="N213" s="89"/>
@@ -10486,7 +10491,7 @@
     </row>
     <row r="214" spans="3:35">
       <c r="D214" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="M214" s="89"/>
       <c r="N214" s="89"/>
@@ -10542,7 +10547,7 @@
         <v>6</v>
       </c>
       <c r="D216" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E216" s="26"/>
       <c r="F216" s="26"/>
@@ -10572,7 +10577,7 @@
     </row>
     <row r="217" spans="3:35">
       <c r="D217" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="M217" s="89"/>
       <c r="N217" s="89"/>
@@ -10600,7 +10605,7 @@
     </row>
     <row r="218" spans="3:35">
       <c r="D218" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="M218" s="89"/>
       <c r="N218" s="89"/>
@@ -10628,7 +10633,7 @@
     </row>
     <row r="219" spans="3:35">
       <c r="D219" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M219" s="89"/>
       <c r="N219" s="89"/>
@@ -10680,21 +10685,21 @@
       <c r="AI220" s="89"/>
     </row>
     <row r="221" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D221" s="137">
+      <c r="D221" s="135">
         <v>360</v>
       </c>
-      <c r="E221" s="137"/>
-      <c r="F221" s="138" t="s">
-        <v>39</v>
+      <c r="E221" s="135"/>
+      <c r="F221" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G221" s="31">
         <f>D221</f>
         <v>360</v>
       </c>
-      <c r="H221" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I221" s="147" t="e">
+      <c r="H221" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I221" s="143" t="e">
         <f>G221/G222</f>
         <v>#DIV/0!</v>
       </c>
@@ -10723,17 +10728,17 @@
       <c r="AI221" s="89"/>
     </row>
     <row r="222" spans="3:35">
-      <c r="D222" s="136" t="s">
-        <v>150</v>
-      </c>
-      <c r="E222" s="136"/>
-      <c r="F222" s="138"/>
+      <c r="D222" s="138" t="s">
+        <v>148</v>
+      </c>
+      <c r="E222" s="138"/>
+      <c r="F222" s="136"/>
       <c r="G222" s="4" t="e">
         <f>I208</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H222" s="138"/>
-      <c r="I222" s="147"/>
+      <c r="H222" s="136"/>
+      <c r="I222" s="143"/>
       <c r="M222" s="89"/>
       <c r="N222" s="89"/>
       <c r="O222" s="89"/>
@@ -10785,7 +10790,7 @@
     </row>
     <row r="224" spans="3:35">
       <c r="D224" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M224" s="89"/>
       <c r="N224" s="89"/>
@@ -10813,7 +10818,7 @@
     </row>
     <row r="225" spans="3:35">
       <c r="D225" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="M225" s="89"/>
       <c r="N225" s="89"/>
@@ -10841,7 +10846,7 @@
     </row>
     <row r="226" spans="3:35">
       <c r="D226" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="M226" s="89"/>
       <c r="N226" s="89"/>
@@ -10897,7 +10902,7 @@
         <v>7</v>
       </c>
       <c r="D228" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E228" s="26"/>
       <c r="F228" s="26"/>
@@ -10927,7 +10932,7 @@
     </row>
     <row r="229" spans="3:35">
       <c r="D229" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M229" s="89"/>
       <c r="N229" s="89"/>
@@ -10955,7 +10960,7 @@
     </row>
     <row r="230" spans="3:35">
       <c r="D230" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M230" s="89"/>
       <c r="N230" s="89"/>
@@ -11007,21 +11012,21 @@
       <c r="AI231" s="89"/>
     </row>
     <row r="232" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D232" s="137" t="s">
-        <v>167</v>
-      </c>
-      <c r="E232" s="137"/>
-      <c r="F232" s="138" t="s">
-        <v>39</v>
+      <c r="D232" s="135" t="s">
+        <v>165</v>
+      </c>
+      <c r="E232" s="135"/>
+      <c r="F232" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G232" s="31">
         <f>'Estados Financieros Comparativo'!K11</f>
         <v>112394</v>
       </c>
-      <c r="H232" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I232" s="149" t="e">
+      <c r="H232" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I232" s="142" t="e">
         <f>G232/G233</f>
         <v>#DIV/0!</v>
       </c>
@@ -11050,17 +11055,17 @@
       <c r="AI232" s="89"/>
     </row>
     <row r="233" spans="3:35">
-      <c r="D233" s="136" t="s">
-        <v>100</v>
-      </c>
-      <c r="E233" s="136"/>
-      <c r="F233" s="138"/>
+      <c r="D233" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="E233" s="138"/>
+      <c r="F233" s="136"/>
       <c r="G233" s="4">
         <f>'Estados Financieros Comparativo'!D46+'Estados Financieros Comparativo'!D47</f>
         <v>0</v>
       </c>
-      <c r="H233" s="138"/>
-      <c r="I233" s="149"/>
+      <c r="H233" s="136"/>
+      <c r="I233" s="142"/>
       <c r="M233" s="89"/>
       <c r="N233" s="89"/>
       <c r="O233" s="89"/>
@@ -11112,7 +11117,7 @@
     </row>
     <row r="235" spans="3:35">
       <c r="D235" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M235" s="89"/>
       <c r="N235" s="89"/>
@@ -11140,7 +11145,7 @@
     </row>
     <row r="236" spans="3:35">
       <c r="D236" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M236" s="89"/>
       <c r="N236" s="89"/>
@@ -11168,7 +11173,7 @@
     </row>
     <row r="237" spans="3:35">
       <c r="D237" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M237" s="89"/>
       <c r="N237" s="89"/>
@@ -11224,7 +11229,7 @@
         <v>8</v>
       </c>
       <c r="D239" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E239" s="26"/>
       <c r="F239" s="26"/>
@@ -11254,7 +11259,7 @@
     </row>
     <row r="240" spans="3:35">
       <c r="D240" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="M240" s="89"/>
       <c r="N240" s="89"/>
@@ -11306,21 +11311,21 @@
       <c r="AI241" s="89"/>
     </row>
     <row r="242" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D242" s="137" t="s">
-        <v>167</v>
-      </c>
-      <c r="E242" s="137"/>
-      <c r="F242" s="138" t="s">
-        <v>39</v>
+      <c r="D242" s="135" t="s">
+        <v>165</v>
+      </c>
+      <c r="E242" s="135"/>
+      <c r="F242" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G242" s="31">
         <f>'Estados Financieros Comparativo'!K11</f>
         <v>112394</v>
       </c>
-      <c r="H242" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I242" s="147" t="e">
+      <c r="H242" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I242" s="143" t="e">
         <f>G242/G243</f>
         <v>#DIV/0!</v>
       </c>
@@ -11349,17 +11354,17 @@
       <c r="AI242" s="89"/>
     </row>
     <row r="243" spans="3:35">
-      <c r="D243" s="136" t="s">
-        <v>104</v>
-      </c>
-      <c r="E243" s="136"/>
-      <c r="F243" s="138"/>
+      <c r="D243" s="138" t="s">
+        <v>102</v>
+      </c>
+      <c r="E243" s="138"/>
+      <c r="F243" s="136"/>
       <c r="G243" s="4">
         <f>'Estados Financieros Comparativo'!D49</f>
         <v>0</v>
       </c>
-      <c r="H243" s="138"/>
-      <c r="I243" s="147"/>
+      <c r="H243" s="136"/>
+      <c r="I243" s="143"/>
       <c r="M243" s="89"/>
       <c r="N243" s="89"/>
       <c r="O243" s="89"/>
@@ -11411,7 +11416,7 @@
     </row>
     <row r="245" spans="3:35">
       <c r="D245" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M245" s="89"/>
       <c r="N245" s="89"/>
@@ -11439,7 +11444,7 @@
     </row>
     <row r="246" spans="3:35">
       <c r="D246" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="M246" s="89"/>
       <c r="N246" s="89"/>
@@ -11467,7 +11472,7 @@
     </row>
     <row r="247" spans="3:35">
       <c r="D247" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M247" s="89"/>
       <c r="N247" s="89"/>
@@ -11519,17 +11524,17 @@
       <c r="AI248" s="89"/>
     </row>
     <row r="249" spans="3:35" ht="18.75">
-      <c r="C249" s="135" t="s">
-        <v>174</v>
-      </c>
-      <c r="D249" s="135"/>
-      <c r="E249" s="135"/>
-      <c r="F249" s="135"/>
-      <c r="G249" s="135"/>
-      <c r="H249" s="135"/>
-      <c r="I249" s="135"/>
-      <c r="J249" s="135"/>
-      <c r="K249" s="135"/>
+      <c r="C249" s="139" t="s">
+        <v>172</v>
+      </c>
+      <c r="D249" s="139"/>
+      <c r="E249" s="139"/>
+      <c r="F249" s="139"/>
+      <c r="G249" s="139"/>
+      <c r="H249" s="139"/>
+      <c r="I249" s="139"/>
+      <c r="J249" s="139"/>
+      <c r="K249" s="139"/>
       <c r="M249" s="89"/>
       <c r="N249" s="89"/>
       <c r="O249" s="89"/>
@@ -11556,7 +11561,7 @@
     </row>
     <row r="250" spans="3:35">
       <c r="D250" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M250" s="89"/>
       <c r="N250" s="89"/>
@@ -11584,7 +11589,7 @@
     </row>
     <row r="251" spans="3:35">
       <c r="D251" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="M251" s="89"/>
       <c r="N251" s="89"/>
@@ -11612,7 +11617,7 @@
     </row>
     <row r="252" spans="3:35">
       <c r="D252" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M252" s="89"/>
       <c r="N252" s="89"/>
@@ -11668,7 +11673,7 @@
         <v>1</v>
       </c>
       <c r="D254" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E254" s="26"/>
       <c r="F254" s="26"/>
@@ -11698,7 +11703,7 @@
     </row>
     <row r="255" spans="3:35">
       <c r="D255" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="M255" s="89"/>
       <c r="N255" s="89"/>
@@ -11750,21 +11755,21 @@
       <c r="AI256" s="89"/>
     </row>
     <row r="257" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D257" s="137" t="s">
-        <v>179</v>
-      </c>
-      <c r="E257" s="137"/>
-      <c r="F257" s="138" t="s">
-        <v>39</v>
+      <c r="D257" s="135" t="s">
+        <v>177</v>
+      </c>
+      <c r="E257" s="135"/>
+      <c r="F257" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G257" s="31">
         <f>'Estados Financieros Comparativo'!K13</f>
         <v>44276</v>
       </c>
-      <c r="H257" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I257" s="148">
+      <c r="H257" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I257" s="137">
         <f>G257/G258</f>
         <v>0.39393561933911064</v>
       </c>
@@ -11793,17 +11798,17 @@
       <c r="AI257" s="89"/>
     </row>
     <row r="258" spans="3:35">
-      <c r="D258" s="136" t="s">
-        <v>18</v>
-      </c>
-      <c r="E258" s="136"/>
-      <c r="F258" s="138"/>
+      <c r="D258" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="E258" s="138"/>
+      <c r="F258" s="136"/>
       <c r="G258" s="4">
         <f>'Estados Financieros Comparativo'!K11</f>
         <v>112394</v>
       </c>
-      <c r="H258" s="138"/>
-      <c r="I258" s="148"/>
+      <c r="H258" s="136"/>
+      <c r="I258" s="137"/>
       <c r="M258" s="89"/>
       <c r="N258" s="89"/>
       <c r="O258" s="89"/>
@@ -11855,7 +11860,7 @@
     </row>
     <row r="260" spans="3:35">
       <c r="D260" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M260" s="89"/>
       <c r="N260" s="89"/>
@@ -11883,7 +11888,7 @@
     </row>
     <row r="261" spans="3:35">
       <c r="D261" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="M261" s="89"/>
       <c r="N261" s="89"/>
@@ -11911,7 +11916,7 @@
     </row>
     <row r="262" spans="3:35">
       <c r="D262" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M262" s="89"/>
       <c r="N262" s="89"/>
@@ -11967,7 +11972,7 @@
         <v>2</v>
       </c>
       <c r="D264" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E264" s="26"/>
       <c r="F264" s="26"/>
@@ -11997,7 +12002,7 @@
     </row>
     <row r="265" spans="3:35">
       <c r="D265" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M265" s="89"/>
       <c r="N265" s="89"/>
@@ -12049,21 +12054,21 @@
       <c r="AI266" s="89"/>
     </row>
     <row r="267" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D267" s="137" t="s">
-        <v>184</v>
-      </c>
-      <c r="E267" s="137"/>
-      <c r="F267" s="138" t="s">
-        <v>39</v>
+      <c r="D267" s="135" t="s">
+        <v>182</v>
+      </c>
+      <c r="E267" s="135"/>
+      <c r="F267" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G267" s="31">
         <f>'Estados Financieros Comparativo'!K24</f>
         <v>7140</v>
       </c>
-      <c r="H267" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I267" s="148">
+      <c r="H267" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I267" s="137">
         <f>G267/G268</f>
         <v>6.3526522768119292E-2</v>
       </c>
@@ -12092,17 +12097,17 @@
       <c r="AI267" s="89"/>
     </row>
     <row r="268" spans="3:35">
-      <c r="D268" s="136" t="s">
-        <v>185</v>
-      </c>
-      <c r="E268" s="136"/>
-      <c r="F268" s="138"/>
+      <c r="D268" s="138" t="s">
+        <v>183</v>
+      </c>
+      <c r="E268" s="138"/>
+      <c r="F268" s="136"/>
       <c r="G268" s="4">
         <f>'Estados Financieros Comparativo'!K11</f>
         <v>112394</v>
       </c>
-      <c r="H268" s="138"/>
-      <c r="I268" s="148"/>
+      <c r="H268" s="136"/>
+      <c r="I268" s="137"/>
       <c r="M268" s="89"/>
       <c r="N268" s="89"/>
       <c r="O268" s="89"/>
@@ -12154,7 +12159,7 @@
     </row>
     <row r="270" spans="3:35">
       <c r="D270" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M270" s="89"/>
       <c r="N270" s="89"/>
@@ -12182,7 +12187,7 @@
     </row>
     <row r="271" spans="3:35">
       <c r="D271" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="M271" s="89"/>
       <c r="N271" s="89"/>
@@ -12210,7 +12215,7 @@
     </row>
     <row r="272" spans="3:35">
       <c r="D272" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M272" s="89"/>
       <c r="N272" s="89"/>
@@ -12238,7 +12243,7 @@
     </row>
     <row r="273" spans="3:35">
       <c r="D273" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="M273" s="89"/>
       <c r="N273" s="89"/>
@@ -12294,7 +12299,7 @@
         <v>3</v>
       </c>
       <c r="D275" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E275" s="26"/>
       <c r="F275" s="26"/>
@@ -12324,7 +12329,7 @@
     </row>
     <row r="276" spans="3:35">
       <c r="D276" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M276" s="89"/>
       <c r="N276" s="89"/>
@@ -12376,21 +12381,21 @@
       <c r="AI277" s="89"/>
     </row>
     <row r="278" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D278" s="137" t="s">
-        <v>184</v>
-      </c>
-      <c r="E278" s="137"/>
-      <c r="F278" s="138" t="s">
-        <v>39</v>
+      <c r="D278" s="135" t="s">
+        <v>182</v>
+      </c>
+      <c r="E278" s="135"/>
+      <c r="F278" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G278" s="31">
         <f>'Estados Financieros Comparativo'!K24</f>
         <v>7140</v>
       </c>
-      <c r="H278" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I278" s="148" t="e">
+      <c r="H278" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I278" s="137" t="e">
         <f>G278/G279</f>
         <v>#DIV/0!</v>
       </c>
@@ -12419,17 +12424,17 @@
       <c r="AI278" s="89"/>
     </row>
     <row r="279" spans="3:35">
-      <c r="D279" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="E279" s="136"/>
-      <c r="F279" s="138"/>
+      <c r="D279" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="E279" s="138"/>
+      <c r="F279" s="136"/>
       <c r="G279" s="4">
         <f>'Estados Financieros Comparativo'!D100</f>
         <v>0</v>
       </c>
-      <c r="H279" s="138"/>
-      <c r="I279" s="148"/>
+      <c r="H279" s="136"/>
+      <c r="I279" s="137"/>
       <c r="M279" s="89"/>
       <c r="N279" s="89"/>
       <c r="O279" s="89"/>
@@ -12481,7 +12486,7 @@
     </row>
     <row r="281" spans="3:35">
       <c r="D281" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M281" s="89"/>
       <c r="N281" s="89"/>
@@ -12509,7 +12514,7 @@
     </row>
     <row r="282" spans="3:35">
       <c r="D282" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="M282" s="89"/>
       <c r="N282" s="89"/>
@@ -12537,7 +12542,7 @@
     </row>
     <row r="283" spans="3:35">
       <c r="D283" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M283" s="89"/>
       <c r="N283" s="89"/>
@@ -12593,7 +12598,7 @@
         <v>4</v>
       </c>
       <c r="D285" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E285" s="26"/>
       <c r="F285" s="26"/>
@@ -12623,7 +12628,7 @@
     </row>
     <row r="286" spans="3:35">
       <c r="D286" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M286" s="89"/>
       <c r="N286" s="89"/>
@@ -12651,7 +12656,7 @@
     </row>
     <row r="287" spans="3:35">
       <c r="D287" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="M287" s="89"/>
       <c r="N287" s="89"/>
@@ -12703,25 +12708,25 @@
       <c r="AI288" s="89"/>
     </row>
     <row r="289" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D289" s="137" t="s">
-        <v>184</v>
-      </c>
-      <c r="E289" s="137"/>
-      <c r="F289" s="150" t="s">
-        <v>196</v>
+      <c r="D289" s="135" t="s">
+        <v>182</v>
+      </c>
+      <c r="E289" s="135"/>
+      <c r="F289" s="140" t="s">
+        <v>194</v>
       </c>
       <c r="G289" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="H289" s="138" t="s">
-        <v>39</v>
+        <v>183</v>
+      </c>
+      <c r="H289" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="I289" s="33">
         <f>'Estados Financieros Comparativo'!K24</f>
         <v>7140</v>
       </c>
-      <c r="J289" s="151" t="s">
-        <v>196</v>
+      <c r="J289" s="141" t="s">
+        <v>194</v>
       </c>
       <c r="K289" s="4">
         <f>'Estados Financieros Comparativo'!K11</f>
@@ -12752,20 +12757,20 @@
       <c r="AI289" s="89"/>
     </row>
     <row r="290" spans="3:35">
-      <c r="D290" s="136" t="s">
-        <v>185</v>
-      </c>
-      <c r="E290" s="136"/>
-      <c r="F290" s="150"/>
+      <c r="D290" s="138" t="s">
+        <v>183</v>
+      </c>
+      <c r="E290" s="138"/>
+      <c r="F290" s="140"/>
       <c r="G290" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H290" s="138"/>
+        <v>195</v>
+      </c>
+      <c r="H290" s="136"/>
       <c r="I290" s="34">
         <f>'Estados Financieros Comparativo'!K11</f>
         <v>112394</v>
       </c>
-      <c r="J290" s="151"/>
+      <c r="J290" s="141"/>
       <c r="K290" s="30">
         <f>'Estados Financieros Comparativo'!D49</f>
         <v>0</v>
@@ -12821,14 +12826,14 @@
     </row>
     <row r="292" spans="3:35">
       <c r="H292" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I292" s="2">
         <f>I289/I290</f>
         <v>6.3526522768119292E-2</v>
       </c>
       <c r="J292" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K292" s="2" t="e">
         <f>K289/K290</f>
@@ -12885,7 +12890,7 @@
     </row>
     <row r="294" spans="3:35" ht="15.75" thickBot="1">
       <c r="J294" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K294" s="35" t="e">
         <f>I292*K292</f>
@@ -12942,7 +12947,7 @@
     </row>
     <row r="296" spans="3:35">
       <c r="D296" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M296" s="89"/>
       <c r="N296" s="89"/>
@@ -12970,7 +12975,7 @@
     </row>
     <row r="297" spans="3:35">
       <c r="D297" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M297" s="89"/>
       <c r="N297" s="89"/>
@@ -12998,7 +13003,7 @@
     </row>
     <row r="298" spans="3:35">
       <c r="D298" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M298" s="89"/>
       <c r="N298" s="89"/>
@@ -13054,7 +13059,7 @@
         <v>5</v>
       </c>
       <c r="D300" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E300" s="26"/>
       <c r="F300" s="26"/>
@@ -13084,7 +13089,7 @@
     </row>
     <row r="301" spans="3:35">
       <c r="D301" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="M301" s="89"/>
       <c r="N301" s="89"/>
@@ -13112,7 +13117,7 @@
     </row>
     <row r="302" spans="3:35">
       <c r="D302" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M302" s="89"/>
       <c r="N302" s="89"/>
@@ -13164,21 +13169,21 @@
       <c r="AI303" s="89"/>
     </row>
     <row r="304" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D304" s="137" t="s">
-        <v>184</v>
-      </c>
-      <c r="E304" s="137"/>
-      <c r="F304" s="138" t="s">
-        <v>39</v>
+      <c r="D304" s="135" t="s">
+        <v>182</v>
+      </c>
+      <c r="E304" s="135"/>
+      <c r="F304" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G304" s="31">
         <f>'Estados Financieros Comparativo'!K24</f>
         <v>7140</v>
       </c>
-      <c r="H304" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I304" s="148">
+      <c r="H304" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I304" s="137">
         <f>G304/G305</f>
         <v>1.7849999999999999</v>
       </c>
@@ -13207,16 +13212,16 @@
       <c r="AI304" s="89"/>
     </row>
     <row r="305" spans="3:35">
-      <c r="D305" s="136" t="s">
-        <v>203</v>
-      </c>
-      <c r="E305" s="136"/>
-      <c r="F305" s="138"/>
+      <c r="D305" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="E305" s="138"/>
+      <c r="F305" s="136"/>
       <c r="G305" s="4">
         <v>4000</v>
       </c>
-      <c r="H305" s="138"/>
-      <c r="I305" s="148"/>
+      <c r="H305" s="136"/>
+      <c r="I305" s="137"/>
       <c r="M305" s="89"/>
       <c r="N305" s="89"/>
       <c r="O305" s="89"/>
@@ -13268,7 +13273,7 @@
     </row>
     <row r="307" spans="3:35">
       <c r="D307" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M307" s="89"/>
       <c r="N307" s="89"/>
@@ -13296,7 +13301,7 @@
     </row>
     <row r="308" spans="3:35">
       <c r="D308" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M308" s="89"/>
       <c r="N308" s="89"/>
@@ -13352,7 +13357,7 @@
         <v>6</v>
       </c>
       <c r="D310" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E310" s="26"/>
       <c r="F310" s="26"/>
@@ -13382,7 +13387,7 @@
     </row>
     <row r="311" spans="3:35">
       <c r="D311" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M311" s="89"/>
       <c r="N311" s="89"/>
@@ -13434,20 +13439,20 @@
       <c r="AI312" s="89"/>
     </row>
     <row r="313" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D313" s="137" t="s">
-        <v>207</v>
-      </c>
-      <c r="E313" s="137"/>
-      <c r="F313" s="138" t="s">
-        <v>39</v>
+      <c r="D313" s="135" t="s">
+        <v>205</v>
+      </c>
+      <c r="E313" s="135"/>
+      <c r="F313" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G313" s="31">
         <v>6000</v>
       </c>
-      <c r="H313" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I313" s="148">
+      <c r="H313" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I313" s="137">
         <f>G313/G314</f>
         <v>1.5</v>
       </c>
@@ -13476,16 +13481,16 @@
       <c r="AI313" s="89"/>
     </row>
     <row r="314" spans="3:35">
-      <c r="D314" s="136" t="s">
-        <v>203</v>
-      </c>
-      <c r="E314" s="136"/>
-      <c r="F314" s="138"/>
+      <c r="D314" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="E314" s="138"/>
+      <c r="F314" s="136"/>
       <c r="G314" s="4">
         <v>4000</v>
       </c>
-      <c r="H314" s="138"/>
-      <c r="I314" s="148"/>
+      <c r="H314" s="136"/>
+      <c r="I314" s="137"/>
       <c r="M314" s="89"/>
       <c r="N314" s="89"/>
       <c r="O314" s="89"/>
@@ -13537,7 +13542,7 @@
     </row>
     <row r="316" spans="3:35">
       <c r="D316" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M316" s="89"/>
       <c r="N316" s="89"/>
@@ -13565,7 +13570,7 @@
     </row>
     <row r="317" spans="3:35">
       <c r="D317" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M317" s="89"/>
       <c r="N317" s="89"/>
@@ -13621,7 +13626,7 @@
         <v>7</v>
       </c>
       <c r="D319" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E319" s="26"/>
       <c r="F319" s="26"/>
@@ -13651,7 +13656,7 @@
     </row>
     <row r="320" spans="3:35">
       <c r="D320" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M320" s="89"/>
       <c r="N320" s="89"/>
@@ -13679,7 +13684,7 @@
     </row>
     <row r="321" spans="3:35">
       <c r="D321" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M321" s="89"/>
       <c r="N321" s="89"/>
@@ -13731,21 +13736,21 @@
       <c r="AI322" s="89"/>
     </row>
     <row r="323" spans="3:35" ht="15.75" thickBot="1">
-      <c r="D323" s="137" t="s">
-        <v>78</v>
-      </c>
-      <c r="E323" s="137"/>
-      <c r="F323" s="138" t="s">
-        <v>39</v>
+      <c r="D323" s="135" t="s">
+        <v>76</v>
+      </c>
+      <c r="E323" s="135"/>
+      <c r="F323" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G323" s="31">
         <f>'Estados Financieros Comparativo'!D100</f>
         <v>0</v>
       </c>
-      <c r="H323" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I323" s="148">
+      <c r="H323" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I323" s="137">
         <f>G323/G324</f>
         <v>0</v>
       </c>
@@ -13774,16 +13779,16 @@
       <c r="AI323" s="89"/>
     </row>
     <row r="324" spans="3:35">
-      <c r="D324" s="136" t="s">
-        <v>203</v>
-      </c>
-      <c r="E324" s="136"/>
-      <c r="F324" s="138"/>
+      <c r="D324" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="E324" s="138"/>
+      <c r="F324" s="136"/>
       <c r="G324" s="4">
         <v>4000</v>
       </c>
-      <c r="H324" s="138"/>
-      <c r="I324" s="148"/>
+      <c r="H324" s="136"/>
+      <c r="I324" s="137"/>
       <c r="M324" s="89"/>
       <c r="N324" s="89"/>
       <c r="O324" s="89"/>
@@ -13835,7 +13840,7 @@
     </row>
     <row r="326" spans="3:35">
       <c r="D326" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M326" s="89"/>
       <c r="N326" s="89"/>
@@ -13863,7 +13868,7 @@
     </row>
     <row r="327" spans="3:35">
       <c r="D327" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M327" s="89"/>
       <c r="N327" s="89"/>
@@ -13915,17 +13920,17 @@
       <c r="AI328" s="89"/>
     </row>
     <row r="329" spans="3:35" ht="18.75">
-      <c r="C329" s="135" t="s">
-        <v>213</v>
-      </c>
-      <c r="D329" s="135"/>
-      <c r="E329" s="135"/>
-      <c r="F329" s="135"/>
-      <c r="G329" s="135"/>
-      <c r="H329" s="135"/>
-      <c r="I329" s="135"/>
-      <c r="J329" s="135"/>
-      <c r="K329" s="135"/>
+      <c r="C329" s="139" t="s">
+        <v>211</v>
+      </c>
+      <c r="D329" s="139"/>
+      <c r="E329" s="139"/>
+      <c r="F329" s="139"/>
+      <c r="G329" s="139"/>
+      <c r="H329" s="139"/>
+      <c r="I329" s="139"/>
+      <c r="J329" s="139"/>
+      <c r="K329" s="139"/>
       <c r="M329" s="89"/>
       <c r="N329" s="89"/>
       <c r="O329" s="89"/>
@@ -13952,7 +13957,7 @@
     </row>
     <row r="330" spans="3:35">
       <c r="D330" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M330" s="89"/>
       <c r="N330" s="89"/>
@@ -13980,7 +13985,7 @@
     </row>
     <row r="331" spans="3:35">
       <c r="D331" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="M331" s="89"/>
       <c r="N331" s="89"/>
@@ -14008,7 +14013,7 @@
     </row>
     <row r="332" spans="3:35">
       <c r="D332" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M332" s="89"/>
       <c r="N332" s="89"/>
@@ -14036,7 +14041,7 @@
     </row>
     <row r="333" spans="3:35">
       <c r="D333" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M333" s="89"/>
       <c r="N333" s="89"/>
@@ -14092,7 +14097,7 @@
         <v>1</v>
       </c>
       <c r="D335" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E335" s="26"/>
       <c r="F335" s="26"/>
@@ -14122,7 +14127,7 @@
     </row>
     <row r="336" spans="3:35">
       <c r="D336" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="M336" s="89"/>
       <c r="N336" s="89"/>
@@ -14150,7 +14155,7 @@
     </row>
     <row r="337" spans="4:35">
       <c r="D337" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M337" s="89"/>
       <c r="N337" s="89"/>
@@ -14202,21 +14207,21 @@
       <c r="AI338" s="89"/>
     </row>
     <row r="339" spans="4:35" ht="15.75" thickBot="1">
-      <c r="D339" s="137" t="s">
-        <v>221</v>
-      </c>
-      <c r="E339" s="137"/>
-      <c r="F339" s="138" t="s">
-        <v>39</v>
+      <c r="D339" s="135" t="s">
+        <v>219</v>
+      </c>
+      <c r="E339" s="135"/>
+      <c r="F339" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G339" s="31">
         <f>'Estados Financieros Comparativo'!K24-'Estados Financieros Comparativo'!K19-'Estados Financieros Comparativo'!K23</f>
         <v>13439</v>
       </c>
-      <c r="H339" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I339" s="148">
+      <c r="H339" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I339" s="137">
         <f>G339/G340</f>
         <v>4.1491200987959242</v>
       </c>
@@ -14245,17 +14250,17 @@
       <c r="AI339" s="89"/>
     </row>
     <row r="340" spans="4:35">
-      <c r="D340" s="136" t="s">
-        <v>222</v>
-      </c>
-      <c r="E340" s="136"/>
-      <c r="F340" s="138"/>
+      <c r="D340" s="138" t="s">
+        <v>220</v>
+      </c>
+      <c r="E340" s="138"/>
+      <c r="F340" s="136"/>
       <c r="G340" s="4">
         <f>-'Estados Financieros Comparativo'!K19</f>
         <v>3239</v>
       </c>
-      <c r="H340" s="138"/>
-      <c r="I340" s="148"/>
+      <c r="H340" s="136"/>
+      <c r="I340" s="137"/>
       <c r="M340" s="89"/>
       <c r="N340" s="89"/>
       <c r="O340" s="89"/>
@@ -17207,129 +17212,6 @@
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="D339:E339"/>
-    <mergeCell ref="F339:F340"/>
-    <mergeCell ref="H339:H340"/>
-    <mergeCell ref="I339:I340"/>
-    <mergeCell ref="D340:E340"/>
-    <mergeCell ref="D323:E323"/>
-    <mergeCell ref="F323:F324"/>
-    <mergeCell ref="H323:H324"/>
-    <mergeCell ref="I323:I324"/>
-    <mergeCell ref="D324:E324"/>
-    <mergeCell ref="C329:K329"/>
-    <mergeCell ref="D304:E304"/>
-    <mergeCell ref="F304:F305"/>
-    <mergeCell ref="H304:H305"/>
-    <mergeCell ref="I304:I305"/>
-    <mergeCell ref="D305:E305"/>
-    <mergeCell ref="D313:E313"/>
-    <mergeCell ref="F313:F314"/>
-    <mergeCell ref="H313:H314"/>
-    <mergeCell ref="I313:I314"/>
-    <mergeCell ref="D314:E314"/>
-    <mergeCell ref="D289:E289"/>
-    <mergeCell ref="F289:F290"/>
-    <mergeCell ref="H289:H290"/>
-    <mergeCell ref="D290:E290"/>
-    <mergeCell ref="J289:J290"/>
-    <mergeCell ref="D267:E267"/>
-    <mergeCell ref="F267:F268"/>
-    <mergeCell ref="H267:H268"/>
-    <mergeCell ref="I267:I268"/>
-    <mergeCell ref="D268:E268"/>
-    <mergeCell ref="D278:E278"/>
-    <mergeCell ref="F278:F279"/>
-    <mergeCell ref="H278:H279"/>
-    <mergeCell ref="I278:I279"/>
-    <mergeCell ref="D279:E279"/>
-    <mergeCell ref="C249:K249"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="F257:F258"/>
-    <mergeCell ref="H257:H258"/>
-    <mergeCell ref="I257:I258"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="D232:E232"/>
-    <mergeCell ref="F232:F233"/>
-    <mergeCell ref="H232:H233"/>
-    <mergeCell ref="I232:I233"/>
-    <mergeCell ref="D233:E233"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="F242:F243"/>
-    <mergeCell ref="H242:H243"/>
-    <mergeCell ref="I242:I243"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="F208:F209"/>
-    <mergeCell ref="H208:H209"/>
-    <mergeCell ref="I208:I209"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="D221:E221"/>
-    <mergeCell ref="F221:F222"/>
-    <mergeCell ref="H221:H222"/>
-    <mergeCell ref="I221:I222"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="F185:F186"/>
-    <mergeCell ref="H185:H186"/>
-    <mergeCell ref="I185:I186"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="D197:E197"/>
-    <mergeCell ref="F197:F198"/>
-    <mergeCell ref="H197:H198"/>
-    <mergeCell ref="I197:I198"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D158:E158"/>
-    <mergeCell ref="F158:F159"/>
-    <mergeCell ref="H158:H159"/>
-    <mergeCell ref="I158:I159"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D170:E170"/>
-    <mergeCell ref="F170:F171"/>
-    <mergeCell ref="H170:H171"/>
-    <mergeCell ref="I170:I171"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="C148:K148"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="I116:I117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="I126:I127"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="C72:K72"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
     <mergeCell ref="C3:K3"/>
     <mergeCell ref="D50:F50"/>
     <mergeCell ref="D49:F49"/>
@@ -17354,6 +17236,129 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="G12:H12"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="C72:K72"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="C148:K148"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D158:E158"/>
+    <mergeCell ref="F158:F159"/>
+    <mergeCell ref="H158:H159"/>
+    <mergeCell ref="I158:I159"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="F170:F171"/>
+    <mergeCell ref="H170:H171"/>
+    <mergeCell ref="I170:I171"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="F185:F186"/>
+    <mergeCell ref="H185:H186"/>
+    <mergeCell ref="I185:I186"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="D197:E197"/>
+    <mergeCell ref="F197:F198"/>
+    <mergeCell ref="H197:H198"/>
+    <mergeCell ref="I197:I198"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="H208:H209"/>
+    <mergeCell ref="I208:I209"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="D221:E221"/>
+    <mergeCell ref="F221:F222"/>
+    <mergeCell ref="H221:H222"/>
+    <mergeCell ref="I221:I222"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="C249:K249"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="F257:F258"/>
+    <mergeCell ref="H257:H258"/>
+    <mergeCell ref="I257:I258"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="D232:E232"/>
+    <mergeCell ref="F232:F233"/>
+    <mergeCell ref="H232:H233"/>
+    <mergeCell ref="I232:I233"/>
+    <mergeCell ref="D233:E233"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="F242:F243"/>
+    <mergeCell ref="H242:H243"/>
+    <mergeCell ref="I242:I243"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="D289:E289"/>
+    <mergeCell ref="F289:F290"/>
+    <mergeCell ref="H289:H290"/>
+    <mergeCell ref="D290:E290"/>
+    <mergeCell ref="J289:J290"/>
+    <mergeCell ref="D267:E267"/>
+    <mergeCell ref="F267:F268"/>
+    <mergeCell ref="H267:H268"/>
+    <mergeCell ref="I267:I268"/>
+    <mergeCell ref="D268:E268"/>
+    <mergeCell ref="D278:E278"/>
+    <mergeCell ref="F278:F279"/>
+    <mergeCell ref="H278:H279"/>
+    <mergeCell ref="I278:I279"/>
+    <mergeCell ref="D279:E279"/>
+    <mergeCell ref="D304:E304"/>
+    <mergeCell ref="F304:F305"/>
+    <mergeCell ref="H304:H305"/>
+    <mergeCell ref="I304:I305"/>
+    <mergeCell ref="D305:E305"/>
+    <mergeCell ref="D313:E313"/>
+    <mergeCell ref="F313:F314"/>
+    <mergeCell ref="H313:H314"/>
+    <mergeCell ref="I313:I314"/>
+    <mergeCell ref="D314:E314"/>
+    <mergeCell ref="D339:E339"/>
+    <mergeCell ref="F339:F340"/>
+    <mergeCell ref="H339:H340"/>
+    <mergeCell ref="I339:I340"/>
+    <mergeCell ref="D340:E340"/>
+    <mergeCell ref="D323:E323"/>
+    <mergeCell ref="F323:F324"/>
+    <mergeCell ref="H323:H324"/>
+    <mergeCell ref="I323:I324"/>
+    <mergeCell ref="D324:E324"/>
+    <mergeCell ref="C329:K329"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="13" orientation="portrait" r:id="rId1"/>
@@ -17383,7 +17388,7 @@
   <sheetData>
     <row r="3" spans="3:15" ht="18.75">
       <c r="C3" s="152" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D3" s="152"/>
       <c r="E3" s="152"/>
@@ -17408,12 +17413,12 @@
     <row r="5" spans="3:15" ht="18.75" customHeight="1" thickTop="1">
       <c r="C5" s="9"/>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="3:15">
       <c r="D6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="3:15">
@@ -17421,21 +17426,21 @@
         <v>1</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E8" s="26"/>
     </row>
     <row r="9" spans="3:15">
       <c r="D9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="3:15">
       <c r="D10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="3:15">
@@ -17449,22 +17454,22 @@
       </c>
     </row>
     <row r="12" spans="3:15" ht="15.75" thickBot="1">
-      <c r="D12" s="137" t="s">
+      <c r="D12" s="135" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="135"/>
+      <c r="F12" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="137"/>
-      <c r="F12" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="G12" s="141">
+      <c r="G12" s="151">
         <f>'Estados Financieros Comparativo'!E29</f>
         <v>0</v>
       </c>
-      <c r="H12" s="141"/>
-      <c r="I12" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="142" t="e">
+      <c r="H12" s="151"/>
+      <c r="I12" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="146" t="e">
         <f>G12/G13</f>
         <v>#DIV/0!</v>
       </c>
@@ -17474,27 +17479,27 @@
       </c>
     </row>
     <row r="13" spans="3:15">
-      <c r="D13" s="136" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="136"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="143">
+      <c r="D13" s="138" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="138"/>
+      <c r="F13" s="136"/>
+      <c r="G13" s="145">
         <f>'Estados Financieros Comparativo'!E69</f>
         <v>0</v>
       </c>
-      <c r="H13" s="143"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="142"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="146"/>
     </row>
     <row r="14" spans="3:15">
       <c r="N14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="15" spans="3:15">
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N15" s="4">
         <f>'Estados Financieros Comparativo'!K21-'Estados Financieros Comparativo'!K20</f>
@@ -17507,7 +17512,7 @@
     </row>
     <row r="16" spans="3:15">
       <c r="D16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="N16">
         <f>'Estados Financieros Comparativo'!D49</f>
@@ -17516,12 +17521,12 @@
     </row>
     <row r="17" spans="3:15">
       <c r="D17" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="3:15">
       <c r="N18" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="3:15">
@@ -17529,7 +17534,7 @@
         <v>2</v>
       </c>
       <c r="D19" s="25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E19" s="26"/>
       <c r="N19">
@@ -17543,7 +17548,7 @@
     </row>
     <row r="20" spans="3:15">
       <c r="D20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <f>'Estados Financieros Comparativo'!D49</f>
@@ -17552,31 +17557,31 @@
     </row>
     <row r="21" spans="3:15">
       <c r="D21" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="3:15">
       <c r="N22" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="3:15" ht="15.75" thickBot="1">
-      <c r="D23" s="137" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="137"/>
-      <c r="F23" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="G23" s="141">
+      <c r="D23" s="135" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="135"/>
+      <c r="F23" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" s="151">
         <f>'Estados Financieros Comparativo'!E29-'Estados Financieros Comparativo'!E15</f>
         <v>0</v>
       </c>
-      <c r="H23" s="141"/>
-      <c r="I23" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="J23" s="142" t="e">
+      <c r="H23" s="151"/>
+      <c r="I23" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="J23" s="146" t="e">
         <f>G23/G24</f>
         <v>#DIV/0!</v>
       </c>
@@ -17590,18 +17595,18 @@
       </c>
     </row>
     <row r="24" spans="3:15">
-      <c r="D24" s="136" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="136"/>
-      <c r="F24" s="138"/>
-      <c r="G24" s="143">
+      <c r="D24" s="138" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="138"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="145">
         <f>'Estados Financieros Comparativo'!E69</f>
         <v>0</v>
       </c>
-      <c r="H24" s="143"/>
-      <c r="I24" s="138"/>
-      <c r="J24" s="142"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="146"/>
       <c r="N24">
         <f>'Estados Financieros Comparativo'!D96</f>
         <v>0</v>
@@ -17609,15 +17614,15 @@
     </row>
     <row r="26" spans="3:15">
       <c r="D26" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="3:15">
       <c r="D27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N27">
         <f>'Estados Financieros Comparativo'!K24</f>
@@ -17630,7 +17635,7 @@
     </row>
     <row r="28" spans="3:15">
       <c r="D28" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N28">
         <f>'Estados Financieros Comparativo'!D96</f>
@@ -17642,68 +17647,68 @@
         <v>3</v>
       </c>
       <c r="D30" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E30" s="26"/>
     </row>
     <row r="31" spans="3:15">
       <c r="D31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="3:15">
       <c r="D32" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="3:10" ht="15.75" thickBot="1">
-      <c r="D34" s="137" t="s">
-        <v>52</v>
-      </c>
-      <c r="E34" s="137"/>
-      <c r="F34" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="141">
+      <c r="D34" s="135" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" s="135"/>
+      <c r="F34" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" s="151">
         <f>'Estados Financieros Comparativo'!E12</f>
         <v>0</v>
       </c>
-      <c r="H34" s="141"/>
-      <c r="I34" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="J34" s="142" t="e">
+      <c r="H34" s="151"/>
+      <c r="I34" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="J34" s="146" t="e">
         <f>G34/G35</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="35" spans="3:10">
-      <c r="D35" s="136" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="136"/>
-      <c r="F35" s="138"/>
-      <c r="G35" s="143">
+      <c r="D35" s="138" t="s">
+        <v>36</v>
+      </c>
+      <c r="E35" s="138"/>
+      <c r="F35" s="136"/>
+      <c r="G35" s="145">
         <f>'Estados Financieros Comparativo'!E69</f>
         <v>0</v>
       </c>
-      <c r="H35" s="143"/>
-      <c r="I35" s="138"/>
-      <c r="J35" s="142"/>
+      <c r="H35" s="145"/>
+      <c r="I35" s="136"/>
+      <c r="J35" s="146"/>
     </row>
     <row r="37" spans="3:10">
       <c r="D37" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="3:10">
       <c r="D38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="3:10">
       <c r="D39" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="3:10">
@@ -17711,86 +17716,86 @@
         <v>4</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E41" s="26"/>
     </row>
     <row r="42" spans="3:10">
       <c r="D42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="3:10">
       <c r="D43" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="3:10">
       <c r="D44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="3:10">
       <c r="D45" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="3:13" ht="15.75" thickBot="1">
-      <c r="D49" s="137" t="s">
-        <v>60</v>
-      </c>
-      <c r="E49" s="137"/>
-      <c r="F49" s="137"/>
-      <c r="G49" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="H49" s="139">
+      <c r="D49" s="135" t="s">
+        <v>58</v>
+      </c>
+      <c r="E49" s="135"/>
+      <c r="F49" s="135"/>
+      <c r="G49" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="H49" s="149">
         <f>'Estados Financieros Comparativo'!E12+'Estados Financieros Comparativo'!E13+'Estados Financieros Comparativo'!E14</f>
         <v>0</v>
       </c>
-      <c r="I49" s="139"/>
-      <c r="J49" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="K49" s="146">
+      <c r="I49" s="149"/>
+      <c r="J49" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="K49" s="148">
         <f>H49/H50</f>
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="3:13">
-      <c r="D50" s="136" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="136"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="138"/>
-      <c r="H50" s="140">
+      <c r="D50" s="138" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" s="138"/>
+      <c r="F50" s="138"/>
+      <c r="G50" s="136"/>
+      <c r="H50" s="150">
         <f>'Estados Financieros Comparativo'!L13/360</f>
         <v>74.11666666666666</v>
       </c>
-      <c r="I50" s="140"/>
-      <c r="J50" s="138"/>
-      <c r="K50" s="146"/>
+      <c r="I50" s="150"/>
+      <c r="J50" s="136"/>
+      <c r="K50" s="148"/>
       <c r="M50" s="23"/>
     </row>
     <row r="51" spans="3:13">
       <c r="K51" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="3:13">
       <c r="D53" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="54" spans="3:13">
       <c r="D54" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="55" spans="3:13">
       <c r="D55" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="57" spans="3:13">
@@ -17798,74 +17803,74 @@
         <v>5</v>
       </c>
       <c r="D57" s="25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E57" s="26"/>
     </row>
     <row r="58" spans="3:13">
       <c r="D58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="59" spans="3:13">
       <c r="D59" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="3:13">
       <c r="D60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="3:13" ht="15.75" thickBot="1">
-      <c r="D62" s="137" t="s">
+      <c r="D62" s="135" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="135"/>
+      <c r="F62" s="136" t="s">
         <v>37</v>
       </c>
-      <c r="E62" s="137"/>
-      <c r="F62" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="G62" s="147">
+      <c r="G62" s="143">
         <f>'Estados Financieros Comparativo'!E29-'Estados Financieros Comparativo'!E69</f>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="3:13">
-      <c r="D63" s="136" t="s">
-        <v>38</v>
-      </c>
-      <c r="E63" s="136"/>
-      <c r="F63" s="138"/>
-      <c r="G63" s="147"/>
+      <c r="D63" s="138" t="s">
+        <v>36</v>
+      </c>
+      <c r="E63" s="138"/>
+      <c r="F63" s="136"/>
+      <c r="G63" s="143"/>
     </row>
     <row r="65" spans="3:11">
       <c r="D65" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="3:11">
       <c r="D66" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="67" spans="3:11">
       <c r="D67" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="3:11">
       <c r="D68" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="69" spans="3:11">
       <c r="D69" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="72" spans="3:11" ht="18.75">
       <c r="C72" s="152" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D72" s="152"/>
       <c r="E72" s="152"/>
@@ -17889,12 +17894,12 @@
     </row>
     <row r="74" spans="3:11" ht="18" customHeight="1" thickTop="1">
       <c r="D74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="75" spans="3:11">
       <c r="D75" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" spans="3:11">
@@ -17902,72 +17907,72 @@
         <v>1</v>
       </c>
       <c r="D77" s="28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E77" s="29"/>
       <c r="F77" s="29"/>
     </row>
     <row r="78" spans="3:11">
       <c r="D78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="3:11">
       <c r="D79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="3:9" ht="15.75" thickBot="1">
-      <c r="D81" s="137" t="s">
-        <v>38</v>
-      </c>
-      <c r="E81" s="137"/>
-      <c r="F81" s="138" t="s">
-        <v>39</v>
+      <c r="D81" s="135" t="s">
+        <v>36</v>
+      </c>
+      <c r="E81" s="135"/>
+      <c r="F81" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G81" s="31">
         <f>'Estados Financieros Comparativo'!E69</f>
         <v>0</v>
       </c>
-      <c r="H81" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I81" s="145" t="e">
+      <c r="H81" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I81" s="144" t="e">
         <f>G81/G82</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="82" spans="3:9">
-      <c r="D82" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="E82" s="136"/>
-      <c r="F82" s="138"/>
+      <c r="D82" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="E82" s="138"/>
+      <c r="F82" s="136"/>
       <c r="G82" s="4">
         <f>'Estados Financieros Comparativo'!E100</f>
         <v>0</v>
       </c>
-      <c r="H82" s="138"/>
-      <c r="I82" s="145"/>
+      <c r="H82" s="136"/>
+      <c r="I82" s="144"/>
     </row>
     <row r="84" spans="3:9">
       <c r="D84" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="3:9">
       <c r="D85" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="86" spans="3:9">
       <c r="D86" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="87" spans="3:9">
       <c r="D87" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="89" spans="3:9">
@@ -17975,67 +17980,67 @@
         <v>2</v>
       </c>
       <c r="D89" s="28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E89" s="29"/>
       <c r="F89" s="29"/>
     </row>
     <row r="90" spans="3:9">
       <c r="D90" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="91" spans="3:9">
       <c r="D91" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="3:9" ht="15.75" thickBot="1">
-      <c r="D93" s="137" t="s">
-        <v>85</v>
-      </c>
-      <c r="E93" s="137"/>
-      <c r="F93" s="138" t="s">
-        <v>39</v>
+      <c r="D93" s="135" t="s">
+        <v>83</v>
+      </c>
+      <c r="E93" s="135"/>
+      <c r="F93" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G93" s="31">
         <f>'Estados Financieros Comparativo'!E88</f>
         <v>0</v>
       </c>
-      <c r="H93" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I93" s="144" t="e">
+      <c r="H93" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I93" s="147" t="e">
         <f>G93/G94</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="94" spans="3:9">
-      <c r="D94" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="E94" s="136"/>
-      <c r="F94" s="138"/>
+      <c r="D94" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="E94" s="138"/>
+      <c r="F94" s="136"/>
       <c r="G94" s="4">
         <f>'Estados Financieros Comparativo'!E100</f>
         <v>0</v>
       </c>
-      <c r="H94" s="138"/>
-      <c r="I94" s="144"/>
+      <c r="H94" s="136"/>
+      <c r="I94" s="147"/>
     </row>
     <row r="96" spans="3:9">
       <c r="D96" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="3:9">
       <c r="D97" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="98" spans="3:9">
       <c r="D98" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="100" spans="3:9">
@@ -18043,72 +18048,72 @@
         <v>3</v>
       </c>
       <c r="D100" s="28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E100" s="26"/>
       <c r="F100" s="26"/>
     </row>
     <row r="101" spans="3:9">
       <c r="D101" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="102" spans="3:9">
       <c r="D102" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="3:9" ht="15.75" thickBot="1">
-      <c r="D104" s="137" t="s">
-        <v>93</v>
-      </c>
-      <c r="E104" s="137"/>
-      <c r="F104" s="138" t="s">
-        <v>39</v>
+      <c r="D104" s="135" t="s">
+        <v>91</v>
+      </c>
+      <c r="E104" s="135"/>
+      <c r="F104" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G104" s="31">
         <f>'Estados Financieros Comparativo'!E69+'Estados Financieros Comparativo'!E88</f>
         <v>0</v>
       </c>
-      <c r="H104" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I104" s="148" t="e">
+      <c r="H104" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I104" s="137" t="e">
         <f>G104/G105</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="105" spans="3:9">
-      <c r="D105" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="E105" s="136"/>
-      <c r="F105" s="138"/>
+      <c r="D105" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="E105" s="138"/>
+      <c r="F105" s="136"/>
       <c r="G105" s="4">
         <f>'Estados Financieros Comparativo'!E100</f>
         <v>0</v>
       </c>
-      <c r="H105" s="138"/>
-      <c r="I105" s="148"/>
+      <c r="H105" s="136"/>
+      <c r="I105" s="137"/>
     </row>
     <row r="107" spans="3:9">
       <c r="D107" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="108" spans="3:9">
       <c r="D108" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="109" spans="3:9">
       <c r="D109" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="110" spans="3:9">
       <c r="D110" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="112" spans="3:9">
@@ -18116,67 +18121,67 @@
         <v>4</v>
       </c>
       <c r="D112" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E112" s="26"/>
       <c r="F112" s="26"/>
     </row>
     <row r="113" spans="3:9">
       <c r="D113" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="114" spans="3:9">
       <c r="D114" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="116" spans="3:9" ht="15.75" thickBot="1">
-      <c r="D116" s="137" t="s">
-        <v>85</v>
-      </c>
-      <c r="E116" s="137"/>
-      <c r="F116" s="138" t="s">
-        <v>39</v>
+      <c r="D116" s="135" t="s">
+        <v>83</v>
+      </c>
+      <c r="E116" s="135"/>
+      <c r="F116" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G116" s="31">
         <f>'Estados Financieros Comparativo'!E88</f>
         <v>0</v>
       </c>
-      <c r="H116" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I116" s="145" t="e">
+      <c r="H116" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I116" s="144" t="e">
         <f>G116/G117</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="117" spans="3:9">
-      <c r="D117" s="136" t="s">
-        <v>100</v>
-      </c>
-      <c r="E117" s="136"/>
-      <c r="F117" s="138"/>
+      <c r="D117" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="E117" s="138"/>
+      <c r="F117" s="136"/>
       <c r="G117" s="4">
         <f>'Estados Financieros Comparativo'!E46+'Estados Financieros Comparativo'!E47</f>
         <v>0</v>
       </c>
-      <c r="H117" s="138"/>
-      <c r="I117" s="145"/>
+      <c r="H117" s="136"/>
+      <c r="I117" s="144"/>
     </row>
     <row r="119" spans="3:9">
       <c r="D119" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="120" spans="3:9">
       <c r="D120" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="121" spans="3:9">
       <c r="D121" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="123" spans="3:9">
@@ -18184,67 +18189,67 @@
         <v>5</v>
       </c>
       <c r="D123" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E123" s="26"/>
       <c r="F123" s="26"/>
     </row>
     <row r="124" spans="3:9">
       <c r="D124" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126" spans="3:9" ht="15.75" thickBot="1">
-      <c r="D126" s="137" t="s">
-        <v>93</v>
-      </c>
-      <c r="E126" s="137"/>
-      <c r="F126" s="138" t="s">
-        <v>39</v>
+      <c r="D126" s="135" t="s">
+        <v>91</v>
+      </c>
+      <c r="E126" s="135"/>
+      <c r="F126" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G126" s="31">
         <f>'Estados Financieros Comparativo'!E69+'Estados Financieros Comparativo'!E88</f>
         <v>0</v>
       </c>
-      <c r="H126" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I126" s="145" t="e">
+      <c r="H126" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I126" s="144" t="e">
         <f>G126/G127</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="127" spans="3:9">
-      <c r="D127" s="136" t="s">
-        <v>104</v>
-      </c>
-      <c r="E127" s="136"/>
-      <c r="F127" s="138"/>
+      <c r="D127" s="138" t="s">
+        <v>102</v>
+      </c>
+      <c r="E127" s="138"/>
+      <c r="F127" s="136"/>
       <c r="G127" s="4">
         <f>'Estados Financieros Comparativo'!E49</f>
         <v>0</v>
       </c>
-      <c r="H127" s="138"/>
-      <c r="I127" s="145"/>
+      <c r="H127" s="136"/>
+      <c r="I127" s="144"/>
     </row>
     <row r="129" spans="3:9">
       <c r="D129" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="130" spans="3:9">
       <c r="D130" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="131" spans="3:9">
       <c r="D131" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="132" spans="3:9">
       <c r="D132" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="134" spans="3:9">
@@ -18252,87 +18257,87 @@
         <v>6</v>
       </c>
       <c r="D134" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E134" s="26"/>
       <c r="F134" s="26"/>
     </row>
     <row r="135" spans="3:9">
       <c r="D135" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="136" spans="3:9">
       <c r="D136" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="138" spans="3:9" ht="15.75" thickBot="1">
-      <c r="D138" s="137" t="s">
-        <v>100</v>
-      </c>
-      <c r="E138" s="137"/>
-      <c r="F138" s="138" t="s">
-        <v>39</v>
+      <c r="D138" s="135" t="s">
+        <v>98</v>
+      </c>
+      <c r="E138" s="135"/>
+      <c r="F138" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G138" s="31">
         <f>'Estados Financieros Comparativo'!E46+'Estados Financieros Comparativo'!E47</f>
         <v>0</v>
       </c>
-      <c r="H138" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I138" s="145" t="e">
+      <c r="H138" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I138" s="144" t="e">
         <f>G138/G139</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="139" spans="3:9">
-      <c r="D139" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="E139" s="136"/>
-      <c r="F139" s="138"/>
+      <c r="D139" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="E139" s="138"/>
+      <c r="F139" s="136"/>
       <c r="G139" s="4">
         <f>'Estados Financieros Comparativo'!E100</f>
         <v>0</v>
       </c>
-      <c r="H139" s="138"/>
-      <c r="I139" s="145"/>
+      <c r="H139" s="136"/>
+      <c r="I139" s="144"/>
     </row>
     <row r="141" spans="3:9">
       <c r="D141" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="142" spans="3:9">
       <c r="D142" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="143" spans="3:9">
       <c r="D143" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="144" spans="3:9">
       <c r="D144" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="145" spans="3:12">
       <c r="D145" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="146" spans="3:12">
       <c r="D146" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="148" spans="3:12" ht="18.75">
       <c r="C148" s="152" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D148" s="152"/>
       <c r="E148" s="152"/>
@@ -18357,12 +18362,12 @@
     </row>
     <row r="150" spans="3:12" ht="15.75" thickTop="1">
       <c r="D150" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="151" spans="3:12">
       <c r="D151" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="153" spans="3:12">
@@ -18370,81 +18375,81 @@
         <v>1</v>
       </c>
       <c r="D153" s="28" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E153" s="26"/>
       <c r="F153" s="26"/>
     </row>
     <row r="154" spans="3:12">
       <c r="D154" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="155" spans="3:12">
       <c r="D155" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="156" spans="3:12">
       <c r="D156" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="157" spans="3:12">
       <c r="D157" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="159" spans="3:12" ht="15.75" thickBot="1">
-      <c r="D159" s="137" t="s">
-        <v>124</v>
-      </c>
-      <c r="E159" s="137"/>
-      <c r="F159" s="138" t="s">
-        <v>39</v>
+      <c r="D159" s="135" t="s">
+        <v>122</v>
+      </c>
+      <c r="E159" s="135"/>
+      <c r="F159" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G159" s="31">
         <v>38540</v>
       </c>
-      <c r="H159" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I159" s="149">
+      <c r="H159" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I159" s="142">
         <f>G159/G160</f>
         <v>11.307026551268887</v>
       </c>
     </row>
     <row r="160" spans="3:12">
-      <c r="D160" s="136" t="s">
-        <v>125</v>
-      </c>
-      <c r="E160" s="136"/>
-      <c r="F160" s="138"/>
+      <c r="D160" s="138" t="s">
+        <v>123</v>
+      </c>
+      <c r="E160" s="138"/>
+      <c r="F160" s="136"/>
       <c r="G160" s="4">
         <f>('Estados Financieros Comparativo'!E14+6817)/2</f>
         <v>3408.5</v>
       </c>
-      <c r="H160" s="138"/>
-      <c r="I160" s="149"/>
+      <c r="H160" s="136"/>
+      <c r="I160" s="142"/>
     </row>
     <row r="162" spans="3:9">
       <c r="D162" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="163" spans="3:9">
       <c r="D163" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="164" spans="3:9">
       <c r="D164" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="165" spans="3:9">
       <c r="D165" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="167" spans="3:9">
@@ -18452,66 +18457,66 @@
         <v>2</v>
       </c>
       <c r="D167" s="28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E167" s="26"/>
       <c r="F167" s="26"/>
     </row>
     <row r="168" spans="3:9">
       <c r="D168" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="169" spans="3:9">
       <c r="D169" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="171" spans="3:9" ht="15.75" thickBot="1">
-      <c r="D171" s="137">
+      <c r="D171" s="135">
         <v>360</v>
       </c>
-      <c r="E171" s="137"/>
-      <c r="F171" s="138" t="s">
-        <v>39</v>
+      <c r="E171" s="135"/>
+      <c r="F171" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G171" s="31">
         <v>360</v>
       </c>
-      <c r="H171" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I171" s="147">
+      <c r="H171" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I171" s="143">
         <f>G171/G172</f>
         <v>31.838609237156199</v>
       </c>
     </row>
     <row r="172" spans="3:9">
-      <c r="D172" s="136" t="s">
-        <v>119</v>
-      </c>
-      <c r="E172" s="136"/>
-      <c r="F172" s="138"/>
+      <c r="D172" s="138" t="s">
+        <v>117</v>
+      </c>
+      <c r="E172" s="138"/>
+      <c r="F172" s="136"/>
       <c r="G172" s="3">
         <f>I159</f>
         <v>11.307026551268887</v>
       </c>
-      <c r="H172" s="138"/>
-      <c r="I172" s="147"/>
+      <c r="H172" s="136"/>
+      <c r="I172" s="143"/>
     </row>
     <row r="174" spans="3:9">
       <c r="D174" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="175" spans="3:9">
       <c r="D175" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="176" spans="3:9">
       <c r="D176" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="178" spans="3:9">
@@ -18519,86 +18524,86 @@
         <v>3</v>
       </c>
       <c r="D178" s="28" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E178" s="26"/>
       <c r="F178" s="26"/>
     </row>
     <row r="179" spans="3:9">
       <c r="D179" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="180" spans="3:9">
       <c r="D180" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="182" spans="3:9">
       <c r="D182" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="183" spans="3:9">
       <c r="D183" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="184" spans="3:9">
       <c r="D184" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="186" spans="3:9" ht="15.75" thickBot="1">
-      <c r="D186" s="137" t="s">
-        <v>140</v>
-      </c>
-      <c r="E186" s="137"/>
-      <c r="F186" s="138" t="s">
-        <v>39</v>
+      <c r="D186" s="135" t="s">
+        <v>138</v>
+      </c>
+      <c r="E186" s="135"/>
+      <c r="F186" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G186" s="31">
         <v>41879</v>
       </c>
-      <c r="H186" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I186" s="147">
+      <c r="H186" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I186" s="143">
         <f>G186/G187</f>
         <v>7.4783928571428575</v>
       </c>
     </row>
     <row r="187" spans="3:9">
-      <c r="D187" s="136" t="s">
-        <v>141</v>
-      </c>
-      <c r="E187" s="136"/>
-      <c r="F187" s="138"/>
+      <c r="D187" s="138" t="s">
+        <v>139</v>
+      </c>
+      <c r="E187" s="138"/>
+      <c r="F187" s="136"/>
       <c r="G187" s="4">
         <f>('Estados Financieros Comparativo'!E67+11200)/2</f>
         <v>5600</v>
       </c>
-      <c r="H187" s="138"/>
-      <c r="I187" s="147"/>
+      <c r="H187" s="136"/>
+      <c r="I187" s="143"/>
     </row>
     <row r="189" spans="3:9">
       <c r="D189" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="190" spans="3:9">
       <c r="D190" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="191" spans="3:9">
       <c r="D191" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="192" spans="3:9">
       <c r="D192" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="194" spans="3:9">
@@ -18606,67 +18611,67 @@
         <v>4</v>
       </c>
       <c r="D194" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E194" s="26"/>
       <c r="F194" s="26"/>
     </row>
     <row r="195" spans="3:9">
       <c r="D195" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="196" spans="3:9">
       <c r="D196" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="198" spans="3:9" ht="15.75" thickBot="1">
-      <c r="D198" s="137">
+      <c r="D198" s="135">
         <v>360</v>
       </c>
-      <c r="E198" s="137"/>
-      <c r="F198" s="138" t="s">
-        <v>39</v>
+      <c r="E198" s="135"/>
+      <c r="F198" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G198" s="31">
         <f>D198</f>
         <v>360</v>
       </c>
-      <c r="H198" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I198" s="147">
+      <c r="H198" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I198" s="143">
         <f>G198/G199</f>
         <v>48.138685259915469</v>
       </c>
     </row>
     <row r="199" spans="3:9">
-      <c r="D199" s="136" t="s">
-        <v>134</v>
-      </c>
-      <c r="E199" s="136"/>
-      <c r="F199" s="138"/>
+      <c r="D199" s="138" t="s">
+        <v>132</v>
+      </c>
+      <c r="E199" s="138"/>
+      <c r="F199" s="136"/>
       <c r="G199" s="4">
         <f>I186</f>
         <v>7.4783928571428575</v>
       </c>
-      <c r="H199" s="138"/>
-      <c r="I199" s="147"/>
+      <c r="H199" s="136"/>
+      <c r="I199" s="143"/>
     </row>
     <row r="201" spans="3:9">
       <c r="D201" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="202" spans="3:9">
       <c r="D202" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="203" spans="3:9">
       <c r="D203" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="205" spans="3:9">
@@ -18674,72 +18679,72 @@
         <v>5</v>
       </c>
       <c r="D205" s="28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E205" s="26"/>
       <c r="F205" s="26"/>
     </row>
     <row r="206" spans="3:9">
       <c r="D206" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="207" spans="3:9">
       <c r="D207" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="209" spans="3:9" ht="15.75" thickBot="1">
-      <c r="D209" s="137" t="s">
-        <v>153</v>
-      </c>
-      <c r="E209" s="137"/>
-      <c r="F209" s="138" t="s">
-        <v>39</v>
+      <c r="D209" s="135" t="s">
+        <v>151</v>
+      </c>
+      <c r="E209" s="135"/>
+      <c r="F209" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G209" s="31">
         <f>-'Estados Financieros Comparativo'!L12</f>
         <v>39238</v>
       </c>
-      <c r="H209" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I209" s="147">
+      <c r="H209" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I209" s="143">
         <f>G209/G210</f>
         <v>3.6758630380814088</v>
       </c>
     </row>
     <row r="210" spans="3:9">
-      <c r="D210" s="136" t="s">
-        <v>154</v>
-      </c>
-      <c r="E210" s="136"/>
-      <c r="F210" s="138"/>
+      <c r="D210" s="138" t="s">
+        <v>152</v>
+      </c>
+      <c r="E210" s="138"/>
+      <c r="F210" s="136"/>
       <c r="G210" s="4">
         <f>('Estados Financieros Comparativo'!E15+21349)/2</f>
         <v>10674.5</v>
       </c>
-      <c r="H210" s="138"/>
-      <c r="I210" s="147"/>
+      <c r="H210" s="136"/>
+      <c r="I210" s="143"/>
     </row>
     <row r="212" spans="3:9">
       <c r="D212" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="213" spans="3:9">
       <c r="D213" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="214" spans="3:9">
       <c r="D214" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="215" spans="3:9">
       <c r="D215" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="217" spans="3:9">
@@ -18747,72 +18752,72 @@
         <v>6</v>
       </c>
       <c r="D217" s="28" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E217" s="26"/>
       <c r="F217" s="26"/>
     </row>
     <row r="218" spans="3:9">
       <c r="D218" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="219" spans="3:9">
       <c r="D219" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="220" spans="3:9">
       <c r="D220" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="222" spans="3:9" ht="15.75" thickBot="1">
-      <c r="D222" s="137">
+      <c r="D222" s="135">
         <v>360</v>
       </c>
-      <c r="E222" s="137"/>
-      <c r="F222" s="138" t="s">
-        <v>39</v>
+      <c r="E222" s="135"/>
+      <c r="F222" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G222" s="31">
         <f>D222</f>
         <v>360</v>
       </c>
-      <c r="H222" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I222" s="147">
+      <c r="H222" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I222" s="143">
         <f>G222/G223</f>
         <v>97.936184311126979</v>
       </c>
     </row>
     <row r="223" spans="3:9">
-      <c r="D223" s="136" t="s">
-        <v>150</v>
-      </c>
-      <c r="E223" s="136"/>
-      <c r="F223" s="138"/>
+      <c r="D223" s="138" t="s">
+        <v>148</v>
+      </c>
+      <c r="E223" s="138"/>
+      <c r="F223" s="136"/>
       <c r="G223" s="4">
         <f>I209</f>
         <v>3.6758630380814088</v>
       </c>
-      <c r="H223" s="138"/>
-      <c r="I223" s="147"/>
+      <c r="H223" s="136"/>
+      <c r="I223" s="143"/>
     </row>
     <row r="225" spans="3:9">
       <c r="D225" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="226" spans="3:9">
       <c r="D226" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="227" spans="3:9">
       <c r="D227" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="229" spans="3:9">
@@ -18820,67 +18825,67 @@
         <v>7</v>
       </c>
       <c r="D229" s="28" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E229" s="26"/>
       <c r="F229" s="26"/>
     </row>
     <row r="230" spans="3:9">
       <c r="D230" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="231" spans="3:9">
       <c r="D231" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="233" spans="3:9" ht="15.75" thickBot="1">
-      <c r="D233" s="137" t="s">
-        <v>167</v>
-      </c>
-      <c r="E233" s="137"/>
-      <c r="F233" s="138" t="s">
-        <v>39</v>
+      <c r="D233" s="135" t="s">
+        <v>165</v>
+      </c>
+      <c r="E233" s="135"/>
+      <c r="F233" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G233" s="31">
         <f>'Estados Financieros Comparativo'!L11</f>
         <v>65920</v>
       </c>
-      <c r="H233" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I233" s="149" t="e">
+      <c r="H233" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I233" s="142" t="e">
         <f>G233/G234</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="234" spans="3:9">
-      <c r="D234" s="136" t="s">
-        <v>100</v>
-      </c>
-      <c r="E234" s="136"/>
-      <c r="F234" s="138"/>
+      <c r="D234" s="138" t="s">
+        <v>98</v>
+      </c>
+      <c r="E234" s="138"/>
+      <c r="F234" s="136"/>
       <c r="G234" s="4">
         <f>'Estados Financieros Comparativo'!E46+'Estados Financieros Comparativo'!E47</f>
         <v>0</v>
       </c>
-      <c r="H234" s="138"/>
-      <c r="I234" s="149"/>
+      <c r="H234" s="136"/>
+      <c r="I234" s="142"/>
     </row>
     <row r="236" spans="3:9">
       <c r="D236" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="237" spans="3:9">
       <c r="D237" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="238" spans="3:9">
       <c r="D238" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="240" spans="3:9">
@@ -18888,67 +18893,67 @@
         <v>8</v>
       </c>
       <c r="D240" s="28" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E240" s="26"/>
       <c r="F240" s="26"/>
     </row>
     <row r="241" spans="3:11">
       <c r="D241" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="243" spans="3:11" ht="15.75" thickBot="1">
-      <c r="D243" s="137" t="s">
-        <v>167</v>
-      </c>
-      <c r="E243" s="137"/>
-      <c r="F243" s="138" t="s">
-        <v>39</v>
+      <c r="D243" s="135" t="s">
+        <v>165</v>
+      </c>
+      <c r="E243" s="135"/>
+      <c r="F243" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G243" s="31">
         <f>'Estados Financieros Comparativo'!L11</f>
         <v>65920</v>
       </c>
-      <c r="H243" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I243" s="147" t="e">
+      <c r="H243" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I243" s="143" t="e">
         <f>G243/G244</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="244" spans="3:11">
-      <c r="D244" s="136" t="s">
-        <v>104</v>
-      </c>
-      <c r="E244" s="136"/>
-      <c r="F244" s="138"/>
+      <c r="D244" s="138" t="s">
+        <v>102</v>
+      </c>
+      <c r="E244" s="138"/>
+      <c r="F244" s="136"/>
       <c r="G244" s="4">
         <f>'Estados Financieros Comparativo'!E49</f>
         <v>0</v>
       </c>
-      <c r="H244" s="138"/>
-      <c r="I244" s="147"/>
+      <c r="H244" s="136"/>
+      <c r="I244" s="143"/>
     </row>
     <row r="246" spans="3:11">
       <c r="D246" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="247" spans="3:11">
       <c r="D247" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="248" spans="3:11">
       <c r="D248" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="250" spans="3:11" ht="18.75">
       <c r="C250" s="152" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D250" s="152"/>
       <c r="E250" s="152"/>
@@ -18972,17 +18977,17 @@
     </row>
     <row r="252" spans="3:11" ht="15.75" thickTop="1">
       <c r="D252" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="253" spans="3:11">
       <c r="D253" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="254" spans="3:11">
       <c r="D254" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="256" spans="3:11">
@@ -18990,62 +18995,62 @@
         <v>1</v>
       </c>
       <c r="D256" s="28" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E256" s="26"/>
       <c r="F256" s="26"/>
     </row>
     <row r="257" spans="3:9">
       <c r="D257" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="259" spans="3:9" ht="15.75" thickBot="1">
-      <c r="D259" s="137" t="s">
-        <v>179</v>
-      </c>
-      <c r="E259" s="137"/>
-      <c r="F259" s="138" t="s">
-        <v>39</v>
+      <c r="D259" s="135" t="s">
+        <v>177</v>
+      </c>
+      <c r="E259" s="135"/>
+      <c r="F259" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G259" s="31">
         <f>'Estados Financieros Comparativo'!L13</f>
         <v>26682</v>
       </c>
-      <c r="H259" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I259" s="148">
+      <c r="H259" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I259" s="137">
         <f>G259/G260</f>
         <v>0.40476334951456311</v>
       </c>
     </row>
     <row r="260" spans="3:9">
-      <c r="D260" s="136" t="s">
-        <v>18</v>
-      </c>
-      <c r="E260" s="136"/>
-      <c r="F260" s="138"/>
+      <c r="D260" s="138" t="s">
+        <v>16</v>
+      </c>
+      <c r="E260" s="138"/>
+      <c r="F260" s="136"/>
       <c r="G260" s="4">
         <f>'Estados Financieros Comparativo'!L11</f>
         <v>65920</v>
       </c>
-      <c r="H260" s="138"/>
-      <c r="I260" s="148"/>
+      <c r="H260" s="136"/>
+      <c r="I260" s="137"/>
     </row>
     <row r="262" spans="3:9">
       <c r="D262" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="263" spans="3:9">
       <c r="D263" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="264" spans="3:9">
       <c r="D264" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="266" spans="3:9">
@@ -19053,67 +19058,67 @@
         <v>2</v>
       </c>
       <c r="D266" s="28" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E266" s="26"/>
       <c r="F266" s="26"/>
     </row>
     <row r="267" spans="3:9">
       <c r="D267" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="269" spans="3:9" ht="15.75" thickBot="1">
-      <c r="D269" s="137" t="s">
-        <v>184</v>
-      </c>
-      <c r="E269" s="137"/>
-      <c r="F269" s="138" t="s">
-        <v>39</v>
+      <c r="D269" s="135" t="s">
+        <v>182</v>
+      </c>
+      <c r="E269" s="135"/>
+      <c r="F269" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G269" s="31">
         <f>'Estados Financieros Comparativo'!L24</f>
         <v>984</v>
       </c>
-      <c r="H269" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I269" s="148">
+      <c r="H269" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I269" s="137">
         <f>G269/G270</f>
         <v>1.4927184466019417E-2</v>
       </c>
     </row>
     <row r="270" spans="3:9">
-      <c r="D270" s="136" t="s">
-        <v>185</v>
-      </c>
-      <c r="E270" s="136"/>
-      <c r="F270" s="138"/>
+      <c r="D270" s="138" t="s">
+        <v>183</v>
+      </c>
+      <c r="E270" s="138"/>
+      <c r="F270" s="136"/>
       <c r="G270" s="4">
         <f>'Estados Financieros Comparativo'!L11</f>
         <v>65920</v>
       </c>
-      <c r="H270" s="138"/>
-      <c r="I270" s="148"/>
+      <c r="H270" s="136"/>
+      <c r="I270" s="137"/>
     </row>
     <row r="272" spans="3:9">
       <c r="D272" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="273" spans="3:9">
       <c r="D273" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="274" spans="3:9">
       <c r="D274" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="275" spans="3:9">
       <c r="D275" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="277" spans="3:9">
@@ -19121,62 +19126,62 @@
         <v>3</v>
       </c>
       <c r="D277" s="28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E277" s="26"/>
       <c r="F277" s="26"/>
     </row>
     <row r="278" spans="3:9">
       <c r="D278" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="280" spans="3:9" ht="15.75" thickBot="1">
-      <c r="D280" s="137" t="s">
-        <v>184</v>
-      </c>
-      <c r="E280" s="137"/>
-      <c r="F280" s="138" t="s">
-        <v>39</v>
+      <c r="D280" s="135" t="s">
+        <v>182</v>
+      </c>
+      <c r="E280" s="135"/>
+      <c r="F280" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G280" s="31">
         <f>'Estados Financieros Comparativo'!L24</f>
         <v>984</v>
       </c>
-      <c r="H280" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I280" s="148" t="e">
+      <c r="H280" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I280" s="137" t="e">
         <f>G280/G281</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="281" spans="3:9">
-      <c r="D281" s="136" t="s">
-        <v>78</v>
-      </c>
-      <c r="E281" s="136"/>
-      <c r="F281" s="138"/>
+      <c r="D281" s="138" t="s">
+        <v>76</v>
+      </c>
+      <c r="E281" s="138"/>
+      <c r="F281" s="136"/>
       <c r="G281" s="4">
         <f>'Estados Financieros Comparativo'!E100</f>
         <v>0</v>
       </c>
-      <c r="H281" s="138"/>
-      <c r="I281" s="148"/>
+      <c r="H281" s="136"/>
+      <c r="I281" s="137"/>
     </row>
     <row r="283" spans="3:9">
       <c r="D283" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="284" spans="3:9">
       <c r="D284" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="285" spans="3:9">
       <c r="D285" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="287" spans="3:9">
@@ -19184,41 +19189,41 @@
         <v>4</v>
       </c>
       <c r="D287" s="28" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E287" s="26"/>
       <c r="F287" s="26"/>
     </row>
     <row r="288" spans="3:9">
       <c r="D288" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="289" spans="3:11">
       <c r="D289" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="291" spans="3:11" ht="15.75" thickBot="1">
-      <c r="D291" s="137" t="s">
-        <v>184</v>
-      </c>
-      <c r="E291" s="137"/>
-      <c r="F291" s="150" t="s">
-        <v>196</v>
+      <c r="D291" s="135" t="s">
+        <v>182</v>
+      </c>
+      <c r="E291" s="135"/>
+      <c r="F291" s="140" t="s">
+        <v>194</v>
       </c>
       <c r="G291" s="31" t="s">
-        <v>185</v>
-      </c>
-      <c r="H291" s="138" t="s">
-        <v>39</v>
+        <v>183</v>
+      </c>
+      <c r="H291" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="I291" s="33">
         <f>'Estados Financieros Comparativo'!L24</f>
         <v>984</v>
       </c>
-      <c r="J291" s="151" t="s">
-        <v>196</v>
+      <c r="J291" s="141" t="s">
+        <v>194</v>
       </c>
       <c r="K291" s="4">
         <f>'Estados Financieros Comparativo'!L11</f>
@@ -19226,20 +19231,20 @@
       </c>
     </row>
     <row r="292" spans="3:11">
-      <c r="D292" s="136" t="s">
-        <v>185</v>
-      </c>
-      <c r="E292" s="136"/>
-      <c r="F292" s="150"/>
+      <c r="D292" s="138" t="s">
+        <v>183</v>
+      </c>
+      <c r="E292" s="138"/>
+      <c r="F292" s="140"/>
       <c r="G292" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="H292" s="138"/>
+        <v>195</v>
+      </c>
+      <c r="H292" s="136"/>
       <c r="I292" s="34">
         <f>'Estados Financieros Comparativo'!L11</f>
         <v>65920</v>
       </c>
-      <c r="J292" s="151"/>
+      <c r="J292" s="141"/>
       <c r="K292" s="30">
         <f>'Estados Financieros Comparativo'!E49</f>
         <v>0</v>
@@ -19247,14 +19252,14 @@
     </row>
     <row r="294" spans="3:11">
       <c r="H294" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I294" s="2">
         <f>I291/I292</f>
         <v>1.4927184466019417E-2</v>
       </c>
       <c r="J294" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K294" s="2" t="e">
         <f>K291/K292</f>
@@ -19263,7 +19268,7 @@
     </row>
     <row r="296" spans="3:11" ht="15.75" thickBot="1">
       <c r="J296" s="6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K296" s="35" t="e">
         <f>I294*K294</f>
@@ -19273,17 +19278,17 @@
     <row r="297" spans="3:11" ht="15.75" thickTop="1"/>
     <row r="298" spans="3:11">
       <c r="D298" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="299" spans="3:11">
       <c r="D299" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="300" spans="3:11">
       <c r="D300" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="302" spans="3:11">
@@ -19291,61 +19296,61 @@
         <v>5</v>
       </c>
       <c r="D302" s="28" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E302" s="26"/>
       <c r="F302" s="26"/>
     </row>
     <row r="303" spans="3:11">
       <c r="D303" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="304" spans="3:11">
       <c r="D304" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="306" spans="3:9" ht="15.75" thickBot="1">
-      <c r="D306" s="137" t="s">
-        <v>184</v>
-      </c>
-      <c r="E306" s="137"/>
-      <c r="F306" s="138" t="s">
-        <v>39</v>
+      <c r="D306" s="135" t="s">
+        <v>182</v>
+      </c>
+      <c r="E306" s="135"/>
+      <c r="F306" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G306" s="31">
         <f>'Estados Financieros Comparativo'!L24</f>
         <v>984</v>
       </c>
-      <c r="H306" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I306" s="148">
+      <c r="H306" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I306" s="137">
         <f>G306/G307</f>
         <v>0.246</v>
       </c>
     </row>
     <row r="307" spans="3:9">
-      <c r="D307" s="136" t="s">
-        <v>203</v>
-      </c>
-      <c r="E307" s="136"/>
-      <c r="F307" s="138"/>
+      <c r="D307" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="E307" s="138"/>
+      <c r="F307" s="136"/>
       <c r="G307" s="4">
         <v>4000</v>
       </c>
-      <c r="H307" s="138"/>
-      <c r="I307" s="148"/>
+      <c r="H307" s="136"/>
+      <c r="I307" s="137"/>
     </row>
     <row r="309" spans="3:9">
       <c r="D309" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="310" spans="3:9">
       <c r="D310" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="312" spans="3:9">
@@ -19353,55 +19358,55 @@
         <v>6</v>
       </c>
       <c r="D312" s="28" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E312" s="26"/>
       <c r="F312" s="26"/>
     </row>
     <row r="313" spans="3:9">
       <c r="D313" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="315" spans="3:9" ht="15.75" thickBot="1">
-      <c r="D315" s="137" t="s">
-        <v>207</v>
-      </c>
-      <c r="E315" s="137"/>
-      <c r="F315" s="138" t="s">
-        <v>39</v>
+      <c r="D315" s="135" t="s">
+        <v>205</v>
+      </c>
+      <c r="E315" s="135"/>
+      <c r="F315" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G315" s="31">
         <v>6000</v>
       </c>
-      <c r="H315" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I315" s="148">
+      <c r="H315" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I315" s="137">
         <f>G315/G316</f>
         <v>1.5</v>
       </c>
     </row>
     <row r="316" spans="3:9">
-      <c r="D316" s="136" t="s">
-        <v>203</v>
-      </c>
-      <c r="E316" s="136"/>
-      <c r="F316" s="138"/>
+      <c r="D316" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="E316" s="138"/>
+      <c r="F316" s="136"/>
       <c r="G316" s="4">
         <v>4000</v>
       </c>
-      <c r="H316" s="138"/>
-      <c r="I316" s="148"/>
+      <c r="H316" s="136"/>
+      <c r="I316" s="137"/>
     </row>
     <row r="318" spans="3:9">
       <c r="D318" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="319" spans="3:9">
       <c r="D319" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="321" spans="3:11">
@@ -19409,66 +19414,66 @@
         <v>7</v>
       </c>
       <c r="D321" s="28" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E321" s="26"/>
       <c r="F321" s="26"/>
     </row>
     <row r="322" spans="3:11">
       <c r="D322" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="323" spans="3:11">
       <c r="D323" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="325" spans="3:11" ht="15.75" thickBot="1">
-      <c r="D325" s="137" t="s">
-        <v>78</v>
-      </c>
-      <c r="E325" s="137"/>
-      <c r="F325" s="138" t="s">
-        <v>39</v>
+      <c r="D325" s="135" t="s">
+        <v>76</v>
+      </c>
+      <c r="E325" s="135"/>
+      <c r="F325" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G325" s="31">
         <f>'Estados Financieros Comparativo'!E100</f>
         <v>0</v>
       </c>
-      <c r="H325" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I325" s="148">
+      <c r="H325" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I325" s="137">
         <f>G325/G326</f>
         <v>0</v>
       </c>
     </row>
     <row r="326" spans="3:11">
-      <c r="D326" s="136" t="s">
-        <v>203</v>
-      </c>
-      <c r="E326" s="136"/>
-      <c r="F326" s="138"/>
+      <c r="D326" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="E326" s="138"/>
+      <c r="F326" s="136"/>
       <c r="G326" s="4">
         <v>4000</v>
       </c>
-      <c r="H326" s="138"/>
-      <c r="I326" s="148"/>
+      <c r="H326" s="136"/>
+      <c r="I326" s="137"/>
     </row>
     <row r="328" spans="3:11">
       <c r="D328" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="329" spans="3:11">
       <c r="D329" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="331" spans="3:11" ht="18.75">
       <c r="C331" s="152" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D331" s="152"/>
       <c r="E331" s="152"/>
@@ -19492,22 +19497,22 @@
     </row>
     <row r="333" spans="3:11" ht="15.75" thickTop="1">
       <c r="D333" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="334" spans="3:11">
       <c r="D334" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="335" spans="3:11">
       <c r="D335" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="336" spans="3:11">
       <c r="D336" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="338" spans="3:9">
@@ -19515,56 +19520,187 @@
         <v>1</v>
       </c>
       <c r="D338" s="28" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E338" s="26"/>
       <c r="F338" s="26"/>
     </row>
     <row r="339" spans="3:9">
       <c r="D339" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="340" spans="3:9">
       <c r="D340" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="342" spans="3:9" ht="15.75" thickBot="1">
-      <c r="D342" s="137" t="s">
-        <v>221</v>
-      </c>
-      <c r="E342" s="137"/>
-      <c r="F342" s="138" t="s">
-        <v>39</v>
+      <c r="D342" s="135" t="s">
+        <v>219</v>
+      </c>
+      <c r="E342" s="135"/>
+      <c r="F342" s="136" t="s">
+        <v>37</v>
       </c>
       <c r="G342" s="31">
         <f>'Estados Financieros Comparativo'!L24-'Estados Financieros Comparativo'!L19-'Estados Financieros Comparativo'!L23</f>
         <v>4284</v>
       </c>
-      <c r="H342" s="138" t="s">
-        <v>39</v>
-      </c>
-      <c r="I342" s="148">
+      <c r="H342" s="136" t="s">
+        <v>37</v>
+      </c>
+      <c r="I342" s="137">
         <f>G342/G343</f>
         <v>1.488533703961084</v>
       </c>
     </row>
     <row r="343" spans="3:9">
-      <c r="D343" s="136" t="s">
-        <v>222</v>
-      </c>
-      <c r="E343" s="136"/>
-      <c r="F343" s="138"/>
+      <c r="D343" s="138" t="s">
+        <v>220</v>
+      </c>
+      <c r="E343" s="138"/>
+      <c r="F343" s="136"/>
       <c r="G343" s="4">
         <f>-'Estados Financieros Comparativo'!L19</f>
         <v>2878</v>
       </c>
-      <c r="H343" s="138"/>
-      <c r="I343" s="148"/>
+      <c r="H343" s="136"/>
+      <c r="I343" s="137"/>
     </row>
   </sheetData>
   <mergeCells count="147">
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:J50"/>
+    <mergeCell ref="K49:K50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="C72:K72"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="H93:H94"/>
+    <mergeCell ref="I93:I94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="F104:F105"/>
+    <mergeCell ref="H104:H105"/>
+    <mergeCell ref="I104:I105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="C148:K148"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="F116:F117"/>
+    <mergeCell ref="H116:H117"/>
+    <mergeCell ref="I116:I117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="F126:F127"/>
+    <mergeCell ref="H126:H127"/>
+    <mergeCell ref="I126:I127"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="H159:H160"/>
+    <mergeCell ref="I159:I160"/>
+    <mergeCell ref="D160:E160"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="H171:H172"/>
+    <mergeCell ref="I171:I172"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="F186:F187"/>
+    <mergeCell ref="H186:H187"/>
+    <mergeCell ref="I186:I187"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="F198:F199"/>
+    <mergeCell ref="H198:H199"/>
+    <mergeCell ref="I198:I199"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="D209:E209"/>
+    <mergeCell ref="F209:F210"/>
+    <mergeCell ref="H209:H210"/>
+    <mergeCell ref="I209:I210"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="D222:E222"/>
+    <mergeCell ref="F222:F223"/>
+    <mergeCell ref="H222:H223"/>
+    <mergeCell ref="I222:I223"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="C250:K250"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="F259:F260"/>
+    <mergeCell ref="H259:H260"/>
+    <mergeCell ref="I259:I260"/>
+    <mergeCell ref="D260:E260"/>
+    <mergeCell ref="D233:E233"/>
+    <mergeCell ref="F233:F234"/>
+    <mergeCell ref="H233:H234"/>
+    <mergeCell ref="I233:I234"/>
+    <mergeCell ref="D234:E234"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="F243:F244"/>
+    <mergeCell ref="H243:H244"/>
+    <mergeCell ref="I243:I244"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="D269:E269"/>
+    <mergeCell ref="F269:F270"/>
+    <mergeCell ref="H269:H270"/>
+    <mergeCell ref="I269:I270"/>
+    <mergeCell ref="D270:E270"/>
+    <mergeCell ref="D280:E280"/>
+    <mergeCell ref="F280:F281"/>
+    <mergeCell ref="H280:H281"/>
+    <mergeCell ref="I280:I281"/>
+    <mergeCell ref="D281:E281"/>
+    <mergeCell ref="D291:E291"/>
+    <mergeCell ref="F291:F292"/>
+    <mergeCell ref="H291:H292"/>
+    <mergeCell ref="J291:J292"/>
+    <mergeCell ref="D292:E292"/>
+    <mergeCell ref="D306:E306"/>
+    <mergeCell ref="F306:F307"/>
+    <mergeCell ref="H306:H307"/>
+    <mergeCell ref="I306:I307"/>
+    <mergeCell ref="D307:E307"/>
     <mergeCell ref="C331:K331"/>
     <mergeCell ref="D342:E342"/>
     <mergeCell ref="F342:F343"/>
@@ -19581,137 +19717,6 @@
     <mergeCell ref="H325:H326"/>
     <mergeCell ref="I325:I326"/>
     <mergeCell ref="D326:E326"/>
-    <mergeCell ref="D291:E291"/>
-    <mergeCell ref="F291:F292"/>
-    <mergeCell ref="H291:H292"/>
-    <mergeCell ref="J291:J292"/>
-    <mergeCell ref="D292:E292"/>
-    <mergeCell ref="D306:E306"/>
-    <mergeCell ref="F306:F307"/>
-    <mergeCell ref="H306:H307"/>
-    <mergeCell ref="I306:I307"/>
-    <mergeCell ref="D307:E307"/>
-    <mergeCell ref="D269:E269"/>
-    <mergeCell ref="F269:F270"/>
-    <mergeCell ref="H269:H270"/>
-    <mergeCell ref="I269:I270"/>
-    <mergeCell ref="D270:E270"/>
-    <mergeCell ref="D280:E280"/>
-    <mergeCell ref="F280:F281"/>
-    <mergeCell ref="H280:H281"/>
-    <mergeCell ref="I280:I281"/>
-    <mergeCell ref="D281:E281"/>
-    <mergeCell ref="C250:K250"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="F259:F260"/>
-    <mergeCell ref="H259:H260"/>
-    <mergeCell ref="I259:I260"/>
-    <mergeCell ref="D260:E260"/>
-    <mergeCell ref="D233:E233"/>
-    <mergeCell ref="F233:F234"/>
-    <mergeCell ref="H233:H234"/>
-    <mergeCell ref="I233:I234"/>
-    <mergeCell ref="D234:E234"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="F243:F244"/>
-    <mergeCell ref="H243:H244"/>
-    <mergeCell ref="I243:I244"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="D209:E209"/>
-    <mergeCell ref="F209:F210"/>
-    <mergeCell ref="H209:H210"/>
-    <mergeCell ref="I209:I210"/>
-    <mergeCell ref="D210:E210"/>
-    <mergeCell ref="D222:E222"/>
-    <mergeCell ref="F222:F223"/>
-    <mergeCell ref="H222:H223"/>
-    <mergeCell ref="I222:I223"/>
-    <mergeCell ref="D223:E223"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="F186:F187"/>
-    <mergeCell ref="H186:H187"/>
-    <mergeCell ref="I186:I187"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="F198:F199"/>
-    <mergeCell ref="H198:H199"/>
-    <mergeCell ref="I198:I199"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="H159:H160"/>
-    <mergeCell ref="I159:I160"/>
-    <mergeCell ref="D160:E160"/>
-    <mergeCell ref="D171:E171"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="H171:H172"/>
-    <mergeCell ref="I171:I172"/>
-    <mergeCell ref="D172:E172"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="C148:K148"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="F116:F117"/>
-    <mergeCell ref="H116:H117"/>
-    <mergeCell ref="I116:I117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="F126:F127"/>
-    <mergeCell ref="H126:H127"/>
-    <mergeCell ref="I126:I127"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="H93:H94"/>
-    <mergeCell ref="I93:I94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="F104:F105"/>
-    <mergeCell ref="H104:H105"/>
-    <mergeCell ref="I104:I105"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="C72:K72"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:J50"/>
-    <mergeCell ref="K49:K50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="H50:I50"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="G13:H13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="13" orientation="portrait" r:id="rId1"/>
@@ -19723,7 +19728,7 @@
   <dimension ref="B3:P124"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -19742,41 +19747,41 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:9">
-      <c r="C3" s="133" t="s">
+      <c r="C3" s="153" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+    </row>
+    <row r="4" spans="3:9">
+      <c r="C4" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="133"/>
-      <c r="H3" s="133"/>
-      <c r="I3" s="133"/>
-    </row>
-    <row r="4" spans="3:9">
-      <c r="C4" s="133" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="133"/>
-      <c r="E4" s="133"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="133"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="133"/>
+      <c r="D4" s="153"/>
+      <c r="E4" s="153"/>
+      <c r="F4" s="153"/>
+      <c r="G4" s="153"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="153"/>
     </row>
     <row r="5" spans="3:9">
-      <c r="C5" s="133" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="133"/>
-      <c r="E5" s="133"/>
-      <c r="F5" s="133"/>
-      <c r="G5" s="133"/>
-      <c r="H5" s="133"/>
-      <c r="I5" s="133"/>
+      <c r="C5" s="153" t="s">
+        <v>287</v>
+      </c>
+      <c r="D5" s="153"/>
+      <c r="E5" s="153"/>
+      <c r="F5" s="153"/>
+      <c r="G5" s="153"/>
+      <c r="H5" s="153"/>
+      <c r="I5" s="153"/>
     </row>
     <row r="6" spans="3:9">
       <c r="C6" s="134" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="134"/>
       <c r="E6" s="134"/>
@@ -19788,27 +19793,27 @@
     <row r="8" spans="3:9">
       <c r="C8" s="96"/>
       <c r="D8" s="113" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E8" s="113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F8" s="113" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G8" s="113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H8" s="114" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I8" s="113" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="3:9">
       <c r="C9" s="97" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="98"/>
       <c r="E9" s="98"/>
@@ -19819,7 +19824,7 @@
     </row>
     <row r="10" spans="3:9">
       <c r="C10" s="102" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="103"/>
       <c r="E10" s="103"/>
@@ -20187,7 +20192,7 @@
     </row>
     <row r="28" spans="3:9">
       <c r="C28" s="74" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" s="14">
         <f>SUM(D11:D27)</f>
@@ -20216,7 +20221,7 @@
     </row>
     <row r="29" spans="3:9">
       <c r="C29" s="100" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D29" s="104"/>
       <c r="E29" s="110"/>
@@ -20584,7 +20589,7 @@
     </row>
     <row r="47" spans="3:9">
       <c r="C47" s="74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D47" s="14">
         <f>SUM(D30:D46)</f>
@@ -20613,7 +20618,7 @@
     </row>
     <row r="48" spans="3:9">
       <c r="C48" s="74" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D48" s="14">
         <f>D47+D28</f>
@@ -20642,7 +20647,7 @@
     </row>
     <row r="49" spans="3:9">
       <c r="C49" s="97" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D49" s="99"/>
       <c r="E49" s="99"/>
@@ -20653,7 +20658,7 @@
     </row>
     <row r="50" spans="3:9">
       <c r="C50" s="102" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D50" s="105"/>
       <c r="E50" s="105"/>
@@ -21021,7 +21026,7 @@
     </row>
     <row r="68" spans="3:16">
       <c r="C68" s="74" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D68" s="14">
         <f>SUM(D51:D67)</f>
@@ -21050,7 +21055,7 @@
     </row>
     <row r="69" spans="3:16">
       <c r="C69" s="100" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D69" s="104"/>
       <c r="E69" s="110"/>
@@ -21419,7 +21424,7 @@
     </row>
     <row r="87" spans="3:9">
       <c r="C87" s="74" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D87" s="14">
         <f>SUM(D70:D86)</f>
@@ -21448,7 +21453,7 @@
     </row>
     <row r="88" spans="3:9">
       <c r="C88" s="97" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D88" s="99"/>
       <c r="E88" s="109"/>
@@ -21669,7 +21674,7 @@
     </row>
     <row r="99" spans="2:10">
       <c r="C99" s="74" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D99" s="14">
         <f>SUM(D89:D98)</f>
@@ -21698,7 +21703,7 @@
     </row>
     <row r="100" spans="2:10">
       <c r="C100" s="74" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D100" s="14">
         <f>D99+D87+D68</f>
@@ -21757,7 +21762,7 @@
     </row>
     <row r="105" spans="2:10">
       <c r="C105" s="133" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D105" s="133"/>
       <c r="E105" s="133"/>
@@ -21768,7 +21773,7 @@
     </row>
     <row r="106" spans="2:10">
       <c r="C106" s="133" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D106" s="133"/>
       <c r="E106" s="133"/>
@@ -21779,7 +21784,7 @@
     </row>
     <row r="107" spans="2:10">
       <c r="C107" s="134" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D107" s="134"/>
       <c r="E107" s="134"/>
@@ -21795,19 +21800,19 @@
         <v>2019</v>
       </c>
       <c r="E109" s="37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F109" s="36">
         <v>2018</v>
       </c>
       <c r="G109" s="37" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H109" s="36" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="I109" s="17" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" spans="2:10">
@@ -21822,7 +21827,7 @@
     </row>
     <row r="111" spans="2:10">
       <c r="C111" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D111" s="38">
         <v>112394</v>
@@ -21848,7 +21853,7 @@
     </row>
     <row r="112" spans="2:10">
       <c r="C112" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D112" s="38">
         <v>-68118</v>
@@ -21875,7 +21880,7 @@
     </row>
     <row r="113" spans="3:9">
       <c r="C113" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D113" s="39">
         <f>SUM(D111:D112)</f>
@@ -21913,7 +21918,7 @@
     </row>
     <row r="115" spans="3:9">
       <c r="C115" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D115" s="47">
         <v>-22401</v>
@@ -21940,7 +21945,7 @@
     </row>
     <row r="116" spans="3:9">
       <c r="C116" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D116" s="38">
         <f>SUM(D113:D115)</f>
@@ -21969,7 +21974,7 @@
     </row>
     <row r="117" spans="3:9">
       <c r="C117" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D117" s="38"/>
       <c r="E117" s="40"/>
@@ -21980,7 +21985,7 @@
     </row>
     <row r="118" spans="3:9">
       <c r="C118" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D118" s="38">
         <v>3750</v>
@@ -22007,7 +22012,7 @@
     </row>
     <row r="119" spans="3:9">
       <c r="C119" s="11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D119" s="38">
         <v>-3239</v>
@@ -22034,7 +22039,7 @@
     </row>
     <row r="120" spans="3:9">
       <c r="C120" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D120" s="38">
         <v>-7248</v>
@@ -22061,7 +22066,7 @@
     </row>
     <row r="121" spans="3:9">
       <c r="C121" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D121" s="39">
         <f>SUM(D116:D120)</f>
@@ -22090,7 +22095,7 @@
     </row>
     <row r="122" spans="3:9">
       <c r="C122" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D122" s="38">
         <v>-4938</v>
@@ -22117,7 +22122,7 @@
     </row>
     <row r="123" spans="3:9">
       <c r="C123" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D123" s="47">
         <v>-3060</v>
@@ -22144,7 +22149,7 @@
     </row>
     <row r="124" spans="3:9" ht="15.75" thickBot="1">
       <c r="C124" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D124" s="53">
         <f>SUM(D121:D123)</f>
@@ -22211,7 +22216,7 @@
     </row>
     <row r="4" spans="3:5" ht="15.75" thickBot="1">
       <c r="C4" s="62" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D4" s="64">
         <v>2024</v>
@@ -22227,7 +22232,7 @@
     </row>
     <row r="6" spans="3:5">
       <c r="C6" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D6" s="65" t="e">
         <f>'Análisis Vertical'!E28/100</f>
@@ -22240,7 +22245,7 @@
     </row>
     <row r="7" spans="3:5">
       <c r="C7" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D7" s="65" t="e">
         <f>'Análisis Vertical'!E47/100</f>
@@ -22253,7 +22258,7 @@
     </row>
     <row r="8" spans="3:5">
       <c r="C8" s="8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D8" s="66" t="e">
         <f>SUM(D6:D7)</f>
@@ -22271,7 +22276,7 @@
     </row>
     <row r="10" spans="3:5" ht="15.75" thickBot="1">
       <c r="C10" s="62" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D10" s="64">
         <v>2019</v>
@@ -22287,7 +22292,7 @@
     </row>
     <row r="12" spans="3:5">
       <c r="C12" s="59" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="65" t="e">
         <f>'Análisis Vertical'!E68/100</f>
@@ -22300,7 +22305,7 @@
     </row>
     <row r="13" spans="3:5">
       <c r="C13" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D13" s="65" t="e">
         <f>'Análisis Vertical'!E87/100</f>
@@ -22313,7 +22318,7 @@
     </row>
     <row r="14" spans="3:5">
       <c r="C14" s="59" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D14" s="65" t="e">
         <f>'Análisis Vertical'!E99/100</f>
@@ -22326,7 +22331,7 @@
     </row>
     <row r="15" spans="3:5" ht="15.75" thickBot="1">
       <c r="C15" s="60" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D15" s="67" t="e">
         <f>SUM(D12:D14)</f>
@@ -22363,10 +22368,10 @@
     <row r="2" spans="3:7" ht="15.75" thickBot="1"/>
     <row r="3" spans="3:7">
       <c r="C3" s="68" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D3" s="69" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E3" s="70"/>
       <c r="F3" s="71">
@@ -22382,7 +22387,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="74" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F4" s="75">
         <v>2</v>
@@ -22397,7 +22402,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F5" s="74">
         <v>0.66</v>
@@ -22412,7 +22417,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="74" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F6" s="74">
         <v>0.12</v>
@@ -22427,7 +22432,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="74" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F7" s="14">
         <v>28890</v>
@@ -22442,7 +22447,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="74" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F8" s="74">
         <v>49</v>
@@ -22457,7 +22462,7 @@
         <v>6</v>
       </c>
       <c r="E9" s="74" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F9" s="74">
         <v>89</v>
@@ -22472,7 +22477,7 @@
         <v>7</v>
       </c>
       <c r="E10" s="74" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F10" s="74">
         <v>170</v>
@@ -22483,10 +22488,10 @@
     </row>
     <row r="11" spans="3:7">
       <c r="C11" s="73" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D11" s="77" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E11" s="74"/>
       <c r="F11" s="74"/>
@@ -22498,7 +22503,7 @@
         <v>1</v>
       </c>
       <c r="E12" s="74" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F12" s="74">
         <v>3.73</v>
@@ -22513,7 +22518,7 @@
         <v>2</v>
       </c>
       <c r="E13" s="74" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F13" s="74">
         <v>0.18</v>
@@ -22528,7 +22533,7 @@
         <v>3</v>
       </c>
       <c r="E14" s="74" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F14" s="74">
         <v>0.56999999999999995</v>
@@ -22543,7 +22548,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="74" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F15" s="74">
         <v>2.2799999999999998</v>
@@ -22558,7 +22563,7 @@
         <v>5</v>
       </c>
       <c r="E16" s="74" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F16" s="78">
         <v>0.1</v>
@@ -22569,10 +22574,10 @@
     </row>
     <row r="17" spans="3:7">
       <c r="C17" s="73" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E17" s="74"/>
       <c r="F17" s="74"/>
@@ -22584,7 +22589,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="74" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F18" s="74">
         <v>0.06</v>
@@ -22599,7 +22604,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="74" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="F19" s="74">
         <v>0.39</v>
@@ -22614,7 +22619,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="74" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F20" s="80">
         <v>0.1</v>
@@ -22629,7 +22634,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="F21" s="83">
         <v>0.18</v>
